--- a/Code/Results/Cases/Case_3_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_7/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.14349674291919</v>
+        <v>25.14349674291917</v>
       </c>
       <c r="C2">
-        <v>18.53327349269686</v>
+        <v>18.53327349269684</v>
       </c>
       <c r="D2">
-        <v>3.413376606546899</v>
+        <v>3.413376606546895</v>
       </c>
       <c r="F2">
-        <v>20.50273004364259</v>
+        <v>20.50273004364269</v>
       </c>
       <c r="G2">
-        <v>15.10391524982662</v>
+        <v>15.10391524982673</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -438,19 +438,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.41770821315606</v>
+        <v>23.41770821315603</v>
       </c>
       <c r="C3">
-        <v>17.32302263607981</v>
+        <v>17.32302263607967</v>
       </c>
       <c r="D3">
-        <v>3.423618753100605</v>
+        <v>3.423618753100671</v>
       </c>
       <c r="F3">
-        <v>19.71403162690095</v>
+        <v>19.71403162690111</v>
       </c>
       <c r="G3">
-        <v>14.78291992618889</v>
+        <v>14.78291992618906</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -464,16 +464,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.2999919154542</v>
+        <v>22.29999191545419</v>
       </c>
       <c r="C4">
-        <v>16.5403865432689</v>
+        <v>16.54038654326895</v>
       </c>
       <c r="D4">
-        <v>3.432397498167557</v>
+        <v>3.43239749816749</v>
       </c>
       <c r="F4">
-        <v>19.2666428282837</v>
+        <v>19.26664282828372</v>
       </c>
       <c r="G4">
         <v>14.6255052653036</v>
@@ -490,19 +490,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.8297423493037</v>
+        <v>21.82974234930371</v>
       </c>
       <c r="C5">
-        <v>16.2114479851641</v>
+        <v>16.21144798516407</v>
       </c>
       <c r="D5">
-        <v>3.436562151538544</v>
+        <v>3.436562151538506</v>
       </c>
       <c r="F5">
-        <v>19.09361786316021</v>
+        <v>19.09361786316019</v>
       </c>
       <c r="G5">
-        <v>14.57091608784466</v>
+        <v>14.57091608784462</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -519,16 +519,16 @@
         <v>21.75076089316016</v>
       </c>
       <c r="C6">
-        <v>16.15622193946138</v>
+        <v>16.15622193946126</v>
       </c>
       <c r="D6">
-        <v>3.437288088558399</v>
+        <v>3.437288088558561</v>
       </c>
       <c r="F6">
-        <v>19.06544778922157</v>
+        <v>19.06544778922167</v>
       </c>
       <c r="G6">
-        <v>14.56241539395117</v>
+        <v>14.56241539395125</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.29370998877016</v>
+        <v>22.29370998877008</v>
       </c>
       <c r="C7">
         <v>16.53599095974252</v>
       </c>
       <c r="D7">
-        <v>3.432451335179626</v>
+        <v>3.432451335179503</v>
       </c>
       <c r="F7">
-        <v>19.2642717529616</v>
+        <v>19.26427175296172</v>
       </c>
       <c r="G7">
-        <v>14.62473095587375</v>
+        <v>14.62473095587388</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -571,16 +571,16 @@
         <v>24.56039454265061</v>
       </c>
       <c r="C8">
-        <v>18.12413976783397</v>
+        <v>18.12413976783405</v>
       </c>
       <c r="D8">
         <v>3.416366733677397</v>
       </c>
       <c r="F8">
-        <v>20.22315655163882</v>
+        <v>20.22315655163876</v>
       </c>
       <c r="G8">
-        <v>14.98477003871307</v>
+        <v>14.98477003871301</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -597,16 +597,16 @@
         <v>28.55262307062858</v>
       </c>
       <c r="C9">
-        <v>20.92866669440121</v>
+        <v>20.92866669440125</v>
       </c>
       <c r="D9">
-        <v>3.406535720371094</v>
+        <v>3.40653572037116</v>
       </c>
       <c r="F9">
-        <v>22.39386565185293</v>
+        <v>22.39386565185297</v>
       </c>
       <c r="G9">
-        <v>16.02078528735994</v>
+        <v>16.02078528735995</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -620,19 +620,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.22178078178358</v>
+        <v>31.22178078178359</v>
       </c>
       <c r="C10">
-        <v>22.80688172532841</v>
+        <v>22.80688172532834</v>
       </c>
       <c r="D10">
-        <v>3.415591441586176</v>
+        <v>3.415591441586327</v>
       </c>
       <c r="F10">
-        <v>24.16268381391396</v>
+        <v>24.16268381391392</v>
       </c>
       <c r="G10">
-        <v>16.99931908088301</v>
+        <v>16.999319080883</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.38166814746354</v>
+        <v>32.38166814746349</v>
       </c>
       <c r="C11">
         <v>23.62353360825749</v>
       </c>
       <c r="D11">
-        <v>3.424021990909246</v>
+        <v>3.424021990909268</v>
       </c>
       <c r="F11">
-        <v>25.16192622615575</v>
+        <v>25.16192622615585</v>
       </c>
       <c r="G11">
-        <v>17.63742632850179</v>
+        <v>17.63742632850187</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.81334241858531</v>
+        <v>32.81334241858534</v>
       </c>
       <c r="C12">
         <v>23.92751972053753</v>
       </c>
       <c r="D12">
-        <v>3.427908055115078</v>
+        <v>3.427908055115084</v>
       </c>
       <c r="F12">
-        <v>25.5494856860069</v>
+        <v>25.54948568600686</v>
       </c>
       <c r="G12">
-        <v>17.92937205783903</v>
+        <v>17.929372057839</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -698,19 +698,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.72070497325266</v>
+        <v>32.72070497325269</v>
       </c>
       <c r="C13">
-        <v>23.86228201465725</v>
+        <v>23.86228201465729</v>
       </c>
       <c r="D13">
-        <v>3.427039011535171</v>
+        <v>3.427039011535261</v>
       </c>
       <c r="F13">
-        <v>25.46592643186967</v>
+        <v>25.46592643186962</v>
       </c>
       <c r="G13">
-        <v>17.86639943505408</v>
+        <v>17.86639943505401</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -724,19 +724,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.41733196759976</v>
+        <v>32.41733196759983</v>
       </c>
       <c r="C14">
         <v>23.6486471561421</v>
       </c>
       <c r="D14">
-        <v>3.424327347448298</v>
+        <v>3.424327347448285</v>
       </c>
       <c r="F14">
-        <v>25.19377008432208</v>
+        <v>25.19377008432218</v>
       </c>
       <c r="G14">
-        <v>17.66140144177436</v>
+        <v>17.66140144177445</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.2305322383374</v>
+        <v>32.23053223833742</v>
       </c>
       <c r="C15">
-        <v>23.51710967237084</v>
+        <v>23.5171096723707</v>
       </c>
       <c r="D15">
-        <v>3.422759029437128</v>
+        <v>3.422759029437072</v>
       </c>
       <c r="F15">
-        <v>25.02733071728019</v>
+        <v>25.02733071728022</v>
       </c>
       <c r="G15">
-        <v>17.5361153985459</v>
+        <v>17.53611539854594</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -776,19 +776,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.1449080727083</v>
+        <v>31.14490807270824</v>
       </c>
       <c r="C16">
-        <v>22.75276563782115</v>
+        <v>22.75276563782113</v>
       </c>
       <c r="D16">
-        <v>3.415133347594748</v>
+        <v>3.415133347594647</v>
       </c>
       <c r="F16">
-        <v>24.10839632463679</v>
+        <v>24.10839632463677</v>
       </c>
       <c r="G16">
-        <v>16.96799395087478</v>
+        <v>16.96799395087479</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -802,19 +802,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.46517737007946</v>
+        <v>30.46517737007941</v>
       </c>
       <c r="C17">
-        <v>22.27430707257177</v>
+        <v>22.27430707257165</v>
       </c>
       <c r="D17">
-        <v>3.411609292435376</v>
+        <v>3.411609292435485</v>
       </c>
       <c r="F17">
-        <v>23.63684854037309</v>
+        <v>23.63684854037296</v>
       </c>
       <c r="G17">
-        <v>16.69905095916646</v>
+        <v>16.69905095916637</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -828,19 +828,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.06908376171097</v>
+        <v>30.06908376171094</v>
       </c>
       <c r="C18">
-        <v>21.99554519394879</v>
+        <v>21.9955451939488</v>
       </c>
       <c r="D18">
-        <v>3.409983250600987</v>
+        <v>3.409983250600864</v>
       </c>
       <c r="F18">
-        <v>23.36916809519638</v>
+        <v>23.36916809519652</v>
       </c>
       <c r="G18">
-        <v>16.54903275358006</v>
+        <v>16.54903275358018</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -854,19 +854,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.93408452370281</v>
+        <v>29.9340845237027</v>
       </c>
       <c r="C19">
-        <v>21.90054413907098</v>
+        <v>21.90054413907096</v>
       </c>
       <c r="D19">
-        <v>3.409499442509561</v>
+        <v>3.409499442509706</v>
       </c>
       <c r="F19">
-        <v>23.27914378397773</v>
+        <v>23.27914378397769</v>
       </c>
       <c r="G19">
-        <v>16.49903609214725</v>
+        <v>16.49903609214728</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -880,19 +880,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.53806503085969</v>
+        <v>30.53806503085966</v>
       </c>
       <c r="C20">
-        <v>22.325607640926</v>
+        <v>22.32560764092601</v>
       </c>
       <c r="D20">
-        <v>3.411942434545753</v>
+        <v>3.411942434545792</v>
       </c>
       <c r="F20">
-        <v>23.68667891334428</v>
+        <v>23.68667891334434</v>
       </c>
       <c r="G20">
-        <v>16.72719575793171</v>
+        <v>16.72719575793176</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -909,16 +909,16 @@
         <v>32.5066426582946</v>
       </c>
       <c r="C21">
-        <v>23.71153826711293</v>
+        <v>23.7115382671128</v>
       </c>
       <c r="D21">
-        <v>3.425104376491422</v>
+        <v>3.42510437649136</v>
       </c>
       <c r="F21">
-        <v>25.27365358802338</v>
+        <v>25.27365358802334</v>
       </c>
       <c r="G21">
-        <v>17.72155547083925</v>
+        <v>17.72155547083923</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -932,19 +932,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.7493563640766</v>
+        <v>33.74935636407659</v>
       </c>
       <c r="C22">
-        <v>24.58674543351616</v>
+        <v>24.5867454335162</v>
       </c>
       <c r="D22">
-        <v>3.437789620027163</v>
+        <v>3.43778962002735</v>
       </c>
       <c r="F22">
-        <v>26.40556366753762</v>
+        <v>26.40556366753759</v>
       </c>
       <c r="G22">
-        <v>18.57538577446569</v>
+        <v>18.57538577446564</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.09001683222894</v>
+        <v>33.09001683222883</v>
       </c>
       <c r="C23">
         <v>24.12236778756776</v>
       </c>
       <c r="D23">
-        <v>3.430619104612081</v>
+        <v>3.43061910461217</v>
       </c>
       <c r="F23">
-        <v>25.80030458272569</v>
+        <v>25.80030458272561</v>
       </c>
       <c r="G23">
-        <v>18.11848671624805</v>
+        <v>18.11848671624796</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -984,19 +984,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.50512907017695</v>
+        <v>30.50512907017696</v>
       </c>
       <c r="C24">
-        <v>22.30242615884715</v>
+        <v>22.30242615884723</v>
       </c>
       <c r="D24">
-        <v>3.411790580607955</v>
+        <v>3.411790580607903</v>
       </c>
       <c r="F24">
-        <v>23.66413995656925</v>
+        <v>23.66413995656916</v>
       </c>
       <c r="G24">
-        <v>16.7144571769991</v>
+        <v>16.71445717699903</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1010,19 +1010,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.51989631957388</v>
+        <v>27.51989631957401</v>
       </c>
       <c r="C25">
-        <v>20.20251813936832</v>
+        <v>20.20251813936837</v>
       </c>
       <c r="D25">
-        <v>3.406577245936933</v>
+        <v>3.406577245936856</v>
       </c>
       <c r="F25">
-        <v>21.77589370446352</v>
+        <v>21.77589370446336</v>
       </c>
       <c r="G25">
-        <v>15.7033013611432</v>
+        <v>15.703301361143</v>
       </c>
       <c r="H25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_7/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.14349674291917</v>
+        <v>25.14349674291919</v>
       </c>
       <c r="C2">
-        <v>18.53327349269684</v>
+        <v>18.53327349269686</v>
       </c>
       <c r="D2">
-        <v>3.413376606546895</v>
+        <v>3.413376606546899</v>
       </c>
       <c r="F2">
-        <v>20.50273004364269</v>
+        <v>20.50273004364259</v>
       </c>
       <c r="G2">
-        <v>15.10391524982673</v>
+        <v>15.10391524982662</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -438,19 +438,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.41770821315603</v>
+        <v>23.41770821315606</v>
       </c>
       <c r="C3">
-        <v>17.32302263607967</v>
+        <v>17.32302263607981</v>
       </c>
       <c r="D3">
-        <v>3.423618753100671</v>
+        <v>3.423618753100605</v>
       </c>
       <c r="F3">
-        <v>19.71403162690111</v>
+        <v>19.71403162690095</v>
       </c>
       <c r="G3">
-        <v>14.78291992618906</v>
+        <v>14.78291992618889</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -464,16 +464,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.29999191545419</v>
+        <v>22.2999919154542</v>
       </c>
       <c r="C4">
-        <v>16.54038654326895</v>
+        <v>16.5403865432689</v>
       </c>
       <c r="D4">
-        <v>3.43239749816749</v>
+        <v>3.432397498167557</v>
       </c>
       <c r="F4">
-        <v>19.26664282828372</v>
+        <v>19.2666428282837</v>
       </c>
       <c r="G4">
         <v>14.6255052653036</v>
@@ -490,19 +490,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.82974234930371</v>
+        <v>21.8297423493037</v>
       </c>
       <c r="C5">
-        <v>16.21144798516407</v>
+        <v>16.2114479851641</v>
       </c>
       <c r="D5">
-        <v>3.436562151538506</v>
+        <v>3.436562151538544</v>
       </c>
       <c r="F5">
-        <v>19.09361786316019</v>
+        <v>19.09361786316021</v>
       </c>
       <c r="G5">
-        <v>14.57091608784462</v>
+        <v>14.57091608784466</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -519,16 +519,16 @@
         <v>21.75076089316016</v>
       </c>
       <c r="C6">
-        <v>16.15622193946126</v>
+        <v>16.15622193946138</v>
       </c>
       <c r="D6">
-        <v>3.437288088558561</v>
+        <v>3.437288088558399</v>
       </c>
       <c r="F6">
-        <v>19.06544778922167</v>
+        <v>19.06544778922157</v>
       </c>
       <c r="G6">
-        <v>14.56241539395125</v>
+        <v>14.56241539395117</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.29370998877008</v>
+        <v>22.29370998877016</v>
       </c>
       <c r="C7">
         <v>16.53599095974252</v>
       </c>
       <c r="D7">
-        <v>3.432451335179503</v>
+        <v>3.432451335179626</v>
       </c>
       <c r="F7">
-        <v>19.26427175296172</v>
+        <v>19.2642717529616</v>
       </c>
       <c r="G7">
-        <v>14.62473095587388</v>
+        <v>14.62473095587375</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -571,16 +571,16 @@
         <v>24.56039454265061</v>
       </c>
       <c r="C8">
-        <v>18.12413976783405</v>
+        <v>18.12413976783397</v>
       </c>
       <c r="D8">
         <v>3.416366733677397</v>
       </c>
       <c r="F8">
-        <v>20.22315655163876</v>
+        <v>20.22315655163882</v>
       </c>
       <c r="G8">
-        <v>14.98477003871301</v>
+        <v>14.98477003871307</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -597,16 +597,16 @@
         <v>28.55262307062858</v>
       </c>
       <c r="C9">
-        <v>20.92866669440125</v>
+        <v>20.92866669440121</v>
       </c>
       <c r="D9">
-        <v>3.40653572037116</v>
+        <v>3.406535720371094</v>
       </c>
       <c r="F9">
-        <v>22.39386565185297</v>
+        <v>22.39386565185293</v>
       </c>
       <c r="G9">
-        <v>16.02078528735995</v>
+        <v>16.02078528735994</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -620,19 +620,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.22178078178359</v>
+        <v>31.22178078178358</v>
       </c>
       <c r="C10">
-        <v>22.80688172532834</v>
+        <v>22.80688172532841</v>
       </c>
       <c r="D10">
-        <v>3.415591441586327</v>
+        <v>3.415591441586176</v>
       </c>
       <c r="F10">
-        <v>24.16268381391392</v>
+        <v>24.16268381391396</v>
       </c>
       <c r="G10">
-        <v>16.999319080883</v>
+        <v>16.99931908088301</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.38166814746349</v>
+        <v>32.38166814746354</v>
       </c>
       <c r="C11">
         <v>23.62353360825749</v>
       </c>
       <c r="D11">
-        <v>3.424021990909268</v>
+        <v>3.424021990909246</v>
       </c>
       <c r="F11">
-        <v>25.16192622615585</v>
+        <v>25.16192622615575</v>
       </c>
       <c r="G11">
-        <v>17.63742632850187</v>
+        <v>17.63742632850179</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.81334241858534</v>
+        <v>32.81334241858531</v>
       </c>
       <c r="C12">
         <v>23.92751972053753</v>
       </c>
       <c r="D12">
-        <v>3.427908055115084</v>
+        <v>3.427908055115078</v>
       </c>
       <c r="F12">
-        <v>25.54948568600686</v>
+        <v>25.5494856860069</v>
       </c>
       <c r="G12">
-        <v>17.929372057839</v>
+        <v>17.92937205783903</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -698,19 +698,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.72070497325269</v>
+        <v>32.72070497325266</v>
       </c>
       <c r="C13">
-        <v>23.86228201465729</v>
+        <v>23.86228201465725</v>
       </c>
       <c r="D13">
-        <v>3.427039011535261</v>
+        <v>3.427039011535171</v>
       </c>
       <c r="F13">
-        <v>25.46592643186962</v>
+        <v>25.46592643186967</v>
       </c>
       <c r="G13">
-        <v>17.86639943505401</v>
+        <v>17.86639943505408</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -724,19 +724,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.41733196759983</v>
+        <v>32.41733196759976</v>
       </c>
       <c r="C14">
         <v>23.6486471561421</v>
       </c>
       <c r="D14">
-        <v>3.424327347448285</v>
+        <v>3.424327347448298</v>
       </c>
       <c r="F14">
-        <v>25.19377008432218</v>
+        <v>25.19377008432208</v>
       </c>
       <c r="G14">
-        <v>17.66140144177445</v>
+        <v>17.66140144177436</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.23053223833742</v>
+        <v>32.2305322383374</v>
       </c>
       <c r="C15">
-        <v>23.5171096723707</v>
+        <v>23.51710967237084</v>
       </c>
       <c r="D15">
-        <v>3.422759029437072</v>
+        <v>3.422759029437128</v>
       </c>
       <c r="F15">
-        <v>25.02733071728022</v>
+        <v>25.02733071728019</v>
       </c>
       <c r="G15">
-        <v>17.53611539854594</v>
+        <v>17.5361153985459</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -776,19 +776,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.14490807270824</v>
+        <v>31.1449080727083</v>
       </c>
       <c r="C16">
-        <v>22.75276563782113</v>
+        <v>22.75276563782115</v>
       </c>
       <c r="D16">
-        <v>3.415133347594647</v>
+        <v>3.415133347594748</v>
       </c>
       <c r="F16">
-        <v>24.10839632463677</v>
+        <v>24.10839632463679</v>
       </c>
       <c r="G16">
-        <v>16.96799395087479</v>
+        <v>16.96799395087478</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -802,19 +802,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.46517737007941</v>
+        <v>30.46517737007946</v>
       </c>
       <c r="C17">
-        <v>22.27430707257165</v>
+        <v>22.27430707257177</v>
       </c>
       <c r="D17">
-        <v>3.411609292435485</v>
+        <v>3.411609292435376</v>
       </c>
       <c r="F17">
-        <v>23.63684854037296</v>
+        <v>23.63684854037309</v>
       </c>
       <c r="G17">
-        <v>16.69905095916637</v>
+        <v>16.69905095916646</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -828,19 +828,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.06908376171094</v>
+        <v>30.06908376171097</v>
       </c>
       <c r="C18">
-        <v>21.9955451939488</v>
+        <v>21.99554519394879</v>
       </c>
       <c r="D18">
-        <v>3.409983250600864</v>
+        <v>3.409983250600987</v>
       </c>
       <c r="F18">
-        <v>23.36916809519652</v>
+        <v>23.36916809519638</v>
       </c>
       <c r="G18">
-        <v>16.54903275358018</v>
+        <v>16.54903275358006</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -854,19 +854,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.9340845237027</v>
+        <v>29.93408452370281</v>
       </c>
       <c r="C19">
-        <v>21.90054413907096</v>
+        <v>21.90054413907098</v>
       </c>
       <c r="D19">
-        <v>3.409499442509706</v>
+        <v>3.409499442509561</v>
       </c>
       <c r="F19">
-        <v>23.27914378397769</v>
+        <v>23.27914378397773</v>
       </c>
       <c r="G19">
-        <v>16.49903609214728</v>
+        <v>16.49903609214725</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -880,19 +880,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.53806503085966</v>
+        <v>30.53806503085969</v>
       </c>
       <c r="C20">
-        <v>22.32560764092601</v>
+        <v>22.325607640926</v>
       </c>
       <c r="D20">
-        <v>3.411942434545792</v>
+        <v>3.411942434545753</v>
       </c>
       <c r="F20">
-        <v>23.68667891334434</v>
+        <v>23.68667891334428</v>
       </c>
       <c r="G20">
-        <v>16.72719575793176</v>
+        <v>16.72719575793171</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -909,16 +909,16 @@
         <v>32.5066426582946</v>
       </c>
       <c r="C21">
-        <v>23.7115382671128</v>
+        <v>23.71153826711293</v>
       </c>
       <c r="D21">
-        <v>3.42510437649136</v>
+        <v>3.425104376491422</v>
       </c>
       <c r="F21">
-        <v>25.27365358802334</v>
+        <v>25.27365358802338</v>
       </c>
       <c r="G21">
-        <v>17.72155547083923</v>
+        <v>17.72155547083925</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -932,19 +932,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.74935636407659</v>
+        <v>33.7493563640766</v>
       </c>
       <c r="C22">
-        <v>24.5867454335162</v>
+        <v>24.58674543351616</v>
       </c>
       <c r="D22">
-        <v>3.43778962002735</v>
+        <v>3.437789620027163</v>
       </c>
       <c r="F22">
-        <v>26.40556366753759</v>
+        <v>26.40556366753762</v>
       </c>
       <c r="G22">
-        <v>18.57538577446564</v>
+        <v>18.57538577446569</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.09001683222883</v>
+        <v>33.09001683222894</v>
       </c>
       <c r="C23">
         <v>24.12236778756776</v>
       </c>
       <c r="D23">
-        <v>3.43061910461217</v>
+        <v>3.430619104612081</v>
       </c>
       <c r="F23">
-        <v>25.80030458272561</v>
+        <v>25.80030458272569</v>
       </c>
       <c r="G23">
-        <v>18.11848671624796</v>
+        <v>18.11848671624805</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -984,19 +984,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.50512907017696</v>
+        <v>30.50512907017695</v>
       </c>
       <c r="C24">
-        <v>22.30242615884723</v>
+        <v>22.30242615884715</v>
       </c>
       <c r="D24">
-        <v>3.411790580607903</v>
+        <v>3.411790580607955</v>
       </c>
       <c r="F24">
-        <v>23.66413995656916</v>
+        <v>23.66413995656925</v>
       </c>
       <c r="G24">
-        <v>16.71445717699903</v>
+        <v>16.7144571769991</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1010,19 +1010,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.51989631957401</v>
+        <v>27.51989631957388</v>
       </c>
       <c r="C25">
-        <v>20.20251813936837</v>
+        <v>20.20251813936832</v>
       </c>
       <c r="D25">
-        <v>3.406577245936856</v>
+        <v>3.406577245936933</v>
       </c>
       <c r="F25">
-        <v>21.77589370446336</v>
+        <v>21.77589370446352</v>
       </c>
       <c r="G25">
-        <v>15.703301361143</v>
+        <v>15.7033013611432</v>
       </c>
       <c r="H25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_7/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,628 +406,703 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.14349674291919</v>
+        <v>25.14321348320928</v>
       </c>
       <c r="C2">
-        <v>18.53327349269686</v>
+        <v>18.53294967737224</v>
       </c>
       <c r="D2">
-        <v>3.413376606546899</v>
+        <v>3.41590857776168</v>
       </c>
       <c r="F2">
-        <v>20.50273004364259</v>
+        <v>20.48506307879778</v>
       </c>
       <c r="G2">
-        <v>15.10391524982662</v>
+        <v>13.71913476692569</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>15.12349312748466</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.41770821315606</v>
+        <v>23.41758735422497</v>
       </c>
       <c r="C3">
-        <v>17.32302263607981</v>
+        <v>17.32287961329931</v>
       </c>
       <c r="D3">
-        <v>3.423618753100605</v>
+        <v>3.425663112581268</v>
       </c>
       <c r="F3">
-        <v>19.71403162690095</v>
+        <v>19.6974862993068</v>
       </c>
       <c r="G3">
-        <v>14.78291992618889</v>
+        <v>13.05950302895391</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>14.80246165936061</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.2999919154542</v>
+        <v>22.29996780075002</v>
       </c>
       <c r="C4">
-        <v>16.5403865432689</v>
+        <v>16.54035730789144</v>
       </c>
       <c r="D4">
-        <v>3.432397498167557</v>
+        <v>3.434134144531779</v>
       </c>
       <c r="F4">
-        <v>19.2666428282837</v>
+        <v>19.25080749512644</v>
       </c>
       <c r="G4">
-        <v>14.6255052653036</v>
+        <v>12.68360612957427</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>14.64513465014793</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.8297423493037</v>
+        <v>21.82975710884509</v>
       </c>
       <c r="C5">
-        <v>16.2114479851641</v>
+        <v>16.21146606984808</v>
       </c>
       <c r="D5">
-        <v>3.436562151538544</v>
+        <v>3.438171523747043</v>
       </c>
       <c r="F5">
-        <v>19.09361786316021</v>
+        <v>19.07807682641044</v>
       </c>
       <c r="G5">
-        <v>14.57091608784466</v>
+        <v>12.53787183596606</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>14.59060731372847</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.75076089316016</v>
+        <v>21.75078208016255</v>
       </c>
       <c r="C6">
-        <v>16.15622193946138</v>
+        <v>16.15624794666418</v>
       </c>
       <c r="D6">
-        <v>3.437288088558399</v>
+        <v>3.438876219089985</v>
       </c>
       <c r="F6">
-        <v>19.06544778922157</v>
+        <v>19.04995590522011</v>
       </c>
       <c r="G6">
-        <v>14.56241539395117</v>
+        <v>12.51412538194189</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>14.58211841724867</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.29370998877016</v>
+        <v>22.2936864003086</v>
       </c>
       <c r="C7">
-        <v>16.53599095974252</v>
+        <v>16.53596235834762</v>
       </c>
       <c r="D7">
-        <v>3.432451335179626</v>
+        <v>3.434186272430768</v>
       </c>
       <c r="F7">
-        <v>19.2642717529616</v>
+        <v>19.24844036932597</v>
       </c>
       <c r="G7">
-        <v>14.62473095587375</v>
+        <v>12.68161041812047</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>14.64436107113828</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.56039454265061</v>
+        <v>24.56016801672202</v>
       </c>
       <c r="C8">
-        <v>18.12413976783397</v>
+        <v>18.12387786071664</v>
       </c>
       <c r="D8">
-        <v>3.416366733677397</v>
+        <v>3.418732442062287</v>
       </c>
       <c r="F8">
-        <v>20.22315655163882</v>
+        <v>20.20587173257513</v>
       </c>
       <c r="G8">
-        <v>14.98477003871307</v>
+        <v>13.4857340340056</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>15.00431184426951</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.55262307062858</v>
+        <v>28.55196554046611</v>
       </c>
       <c r="C9">
-        <v>20.92866669440121</v>
+        <v>20.92795847447277</v>
       </c>
       <c r="D9">
-        <v>3.406535720371094</v>
+        <v>3.410060782396516</v>
       </c>
       <c r="F9">
-        <v>22.39386565185293</v>
+        <v>22.37390614947355</v>
       </c>
       <c r="G9">
-        <v>16.02078528735994</v>
+        <v>15.28733630814223</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>16.0410756937282</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.22178078178358</v>
+        <v>31.22077186798484</v>
       </c>
       <c r="C10">
-        <v>22.80688172532841</v>
+        <v>22.80583731883212</v>
       </c>
       <c r="D10">
-        <v>3.415591441586176</v>
+        <v>3.419901547351154</v>
       </c>
       <c r="F10">
-        <v>24.16268381391396</v>
+        <v>24.14085911815766</v>
       </c>
       <c r="G10">
-        <v>16.99931908088301</v>
+        <v>16.89439761130481</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>17.02076423812561</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.38166814746354</v>
+        <v>32.38048805027606</v>
       </c>
       <c r="C11">
-        <v>23.62353360825749</v>
+        <v>23.62233092567195</v>
       </c>
       <c r="D11">
-        <v>3.424021990909246</v>
+        <v>3.428669383633252</v>
       </c>
       <c r="F11">
-        <v>25.16192622615575</v>
+        <v>25.13894670479382</v>
       </c>
       <c r="G11">
-        <v>17.63742632850179</v>
+        <v>17.6608091287262</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>17.51628422054053</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.81334241858531</v>
+        <v>32.81209549339404</v>
       </c>
       <c r="C12">
-        <v>23.92751972053753</v>
+        <v>23.92625600424804</v>
       </c>
       <c r="D12">
-        <v>3.427908055115078</v>
+        <v>3.43267978329278</v>
       </c>
       <c r="F12">
-        <v>25.5494856860069</v>
+        <v>25.52621161824661</v>
       </c>
       <c r="G12">
-        <v>17.92937205783903</v>
+        <v>17.953172035591</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>17.71126733133719</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.72070497325266</v>
+        <v>32.71947253642898</v>
       </c>
       <c r="C13">
-        <v>23.86228201465725</v>
+        <v>23.86103149759177</v>
       </c>
       <c r="D13">
-        <v>3.427039011535171</v>
+        <v>3.431784121832907</v>
       </c>
       <c r="F13">
-        <v>25.46592643186967</v>
+        <v>25.44271582294597</v>
       </c>
       <c r="G13">
-        <v>17.86639943505408</v>
+        <v>17.89010917372691</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>17.66894499003273</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.41733196759976</v>
+        <v>32.41614641496457</v>
       </c>
       <c r="C14">
-        <v>23.6486471561421</v>
+        <v>23.64743947631589</v>
       </c>
       <c r="D14">
-        <v>3.424327347448298</v>
+        <v>3.428985040550017</v>
       </c>
       <c r="F14">
-        <v>25.19377008432208</v>
+        <v>25.17076633937113</v>
       </c>
       <c r="G14">
-        <v>17.66140144177436</v>
+        <v>17.68481838562064</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>17.5321774925883</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.2305322383374</v>
+        <v>32.22937513044289</v>
       </c>
       <c r="C15">
-        <v>23.51710967237084</v>
+        <v>23.51592807812804</v>
       </c>
       <c r="D15">
-        <v>3.422759029437128</v>
+        <v>3.427362718647196</v>
       </c>
       <c r="F15">
-        <v>25.02733071728019</v>
+        <v>25.00445363197662</v>
       </c>
       <c r="G15">
-        <v>17.5361153985459</v>
+        <v>17.55935415781794</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>17.44936451444573</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.1449080727083</v>
+        <v>31.14391008733142</v>
       </c>
       <c r="C16">
-        <v>22.75276563782115</v>
+        <v>22.75173144022611</v>
       </c>
       <c r="D16">
-        <v>3.415133347594748</v>
+        <v>3.419420967608185</v>
       </c>
       <c r="F16">
-        <v>24.10839632463679</v>
+        <v>24.08662630568484</v>
       </c>
       <c r="G16">
-        <v>16.96799395087478</v>
+        <v>16.84460428910133</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>16.98939872489243</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.46517737007946</v>
+        <v>30.46427384892444</v>
       </c>
       <c r="C17">
-        <v>22.27430707257177</v>
+        <v>22.27336170683293</v>
       </c>
       <c r="D17">
-        <v>3.411609292435376</v>
+        <v>3.415697575828224</v>
       </c>
       <c r="F17">
-        <v>23.63684854037309</v>
+        <v>23.6155593859649</v>
       </c>
       <c r="G17">
-        <v>16.69905095916646</v>
+        <v>16.40983557986901</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>16.72011676235484</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.06908376171097</v>
+        <v>30.06823353225958</v>
       </c>
       <c r="C18">
-        <v>21.99554519394879</v>
+        <v>21.99465044072102</v>
       </c>
       <c r="D18">
-        <v>3.409983250600987</v>
+        <v>3.413955050392179</v>
       </c>
       <c r="F18">
-        <v>23.36916809519638</v>
+        <v>23.34815706490451</v>
       </c>
       <c r="G18">
-        <v>16.54903275358006</v>
+        <v>16.16111364677292</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>16.56991619044699</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.93408452370281</v>
+        <v>29.9332521694876</v>
       </c>
       <c r="C19">
-        <v>21.90054413907098</v>
+        <v>21.89966644914514</v>
       </c>
       <c r="D19">
-        <v>3.409499442509561</v>
+        <v>3.413431503727408</v>
       </c>
       <c r="F19">
-        <v>23.27914378397773</v>
+        <v>23.25822720646795</v>
       </c>
       <c r="G19">
-        <v>16.49903609214725</v>
+        <v>16.07713123095197</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>16.51985994961451</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.53806503085969</v>
+        <v>30.53715156415758</v>
       </c>
       <c r="C20">
-        <v>22.325607640926</v>
+        <v>22.32465287095282</v>
       </c>
       <c r="D20">
-        <v>3.411942434545753</v>
+        <v>3.416052130758219</v>
       </c>
       <c r="F20">
-        <v>23.68667891334428</v>
+        <v>23.66533841514307</v>
       </c>
       <c r="G20">
-        <v>16.72719575793171</v>
+        <v>16.45597800007842</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>16.7482963417947</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.5066426582946</v>
+        <v>32.50544339232152</v>
       </c>
       <c r="C21">
-        <v>23.71153826711293</v>
+        <v>23.7103180375803</v>
       </c>
       <c r="D21">
-        <v>3.425104376491422</v>
+        <v>3.429787842718445</v>
       </c>
       <c r="F21">
-        <v>25.27365358802338</v>
+        <v>25.25058909439623</v>
       </c>
       <c r="G21">
-        <v>17.72155547083925</v>
+        <v>17.74505817497234</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>17.57214882359423</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.7493563640766</v>
+        <v>33.74795840796778</v>
       </c>
       <c r="C22">
-        <v>24.58674543351616</v>
+        <v>24.58534512613476</v>
       </c>
       <c r="D22">
-        <v>3.437789620027163</v>
+        <v>3.442828029901884</v>
       </c>
       <c r="F22">
-        <v>26.40556366753762</v>
+        <v>26.38164048097747</v>
       </c>
       <c r="G22">
-        <v>18.57538577446569</v>
+        <v>18.60011875673872</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>18.28275344310557</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.09001683222894</v>
+        <v>33.0887261499906</v>
       </c>
       <c r="C23">
-        <v>24.12236778756776</v>
+        <v>24.12106431378089</v>
       </c>
       <c r="D23">
-        <v>3.430619104612081</v>
+        <v>3.435470104996278</v>
       </c>
       <c r="F23">
-        <v>25.80030458272569</v>
+        <v>25.7768401602834</v>
       </c>
       <c r="G23">
-        <v>18.11848671624805</v>
+        <v>18.14255848923593</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>17.86556021445417</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.50512907017695</v>
+        <v>30.50422010299725</v>
       </c>
       <c r="C24">
-        <v>22.30242615884715</v>
+        <v>22.30147564193098</v>
       </c>
       <c r="D24">
-        <v>3.411790580607955</v>
+        <v>3.415890601907993</v>
       </c>
       <c r="F24">
-        <v>23.66413995656925</v>
+        <v>23.64282266564433</v>
       </c>
       <c r="G24">
-        <v>16.7144571769991</v>
+        <v>16.43511317722363</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>16.73554199753347</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.51989631957388</v>
+        <v>27.51936033228107</v>
       </c>
       <c r="C25">
-        <v>20.20251813936832</v>
+        <v>20.2019309874165</v>
       </c>
       <c r="D25">
-        <v>3.406577245936933</v>
+        <v>3.409798783801244</v>
       </c>
       <c r="F25">
-        <v>21.77589370446352</v>
+        <v>21.75663892610277</v>
       </c>
       <c r="G25">
-        <v>15.7033013611432</v>
+        <v>14.77676016463314</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="J25">
+        <v>15.72328483340936</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_7/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,700 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.14321348320928</v>
+        <v>24.64210692051073</v>
       </c>
       <c r="C2">
-        <v>18.53294967737224</v>
+        <v>17.96277060300097</v>
       </c>
       <c r="D2">
-        <v>3.41590857776168</v>
+        <v>2.324074638407253</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>20.48506307879778</v>
+        <v>64.03965936479828</v>
       </c>
       <c r="G2">
-        <v>13.71913476692569</v>
+        <v>2.072601174205064</v>
       </c>
       <c r="H2">
-        <v>15.12349312748466</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
+      <c r="J2">
+        <v>8.307679332238294</v>
+      </c>
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.41758735422497</v>
+        <v>22.79929793287835</v>
       </c>
       <c r="C3">
-        <v>17.32287961329931</v>
+        <v>16.59279617316826</v>
       </c>
       <c r="D3">
-        <v>3.425663112581268</v>
+        <v>2.17621469291622</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>19.6974862993068</v>
+        <v>60.40196539151091</v>
       </c>
       <c r="G3">
-        <v>13.05950302895391</v>
+        <v>2.089292702901626</v>
       </c>
       <c r="H3">
-        <v>14.80246165936061</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
+      <c r="J3">
+        <v>8.025676300969208</v>
+      </c>
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.29996780075002</v>
+        <v>21.62411597091317</v>
       </c>
       <c r="C4">
-        <v>16.54035730789144</v>
+        <v>15.7195903422203</v>
       </c>
       <c r="D4">
-        <v>3.434134144531779</v>
+        <v>2.08507382937803</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>19.25080749512644</v>
+        <v>58.14063388385377</v>
       </c>
       <c r="G4">
-        <v>12.68360612957427</v>
+        <v>2.09964118407503</v>
       </c>
       <c r="H4">
-        <v>14.64513465014793</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
+      <c r="J4">
+        <v>7.857788747586316</v>
+      </c>
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.82975710884509</v>
+        <v>21.13387363015738</v>
       </c>
       <c r="C5">
-        <v>16.21146606984808</v>
+        <v>15.35535153396658</v>
       </c>
       <c r="D5">
-        <v>3.438171523747043</v>
+        <v>2.047755323379203</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>19.07807682641044</v>
+        <v>57.21211233956518</v>
       </c>
       <c r="G5">
-        <v>12.53787183596606</v>
+        <v>2.103891473138368</v>
       </c>
       <c r="H5">
-        <v>14.59060731372847</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
+      <c r="J5">
+        <v>7.790663198995521</v>
+      </c>
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.75078208016255</v>
+        <v>21.05177504654841</v>
       </c>
       <c r="C6">
-        <v>16.15624794666418</v>
+        <v>15.29435363465976</v>
       </c>
       <c r="D6">
-        <v>3.438876219089985</v>
+        <v>2.041545488487302</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>19.04995590522011</v>
+        <v>57.05751326331189</v>
       </c>
       <c r="G6">
-        <v>12.51412538194189</v>
+        <v>2.104599453831721</v>
       </c>
       <c r="H6">
-        <v>14.58211841724867</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
+      <c r="J6">
+        <v>7.779594254046532</v>
+      </c>
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.2936864003086</v>
+        <v>21.61755074730925</v>
       </c>
       <c r="C7">
-        <v>16.53596235834762</v>
+        <v>15.71471251625292</v>
       </c>
       <c r="D7">
-        <v>3.434186272430768</v>
+        <v>2.08457136827057</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>19.24844036932597</v>
+        <v>58.12813973280312</v>
       </c>
       <c r="G7">
-        <v>12.68161041812047</v>
+        <v>2.09969836054497</v>
       </c>
       <c r="H7">
-        <v>14.64436107113828</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
+      <c r="J7">
+        <v>7.856878279641869</v>
+      </c>
       <c r="K7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.56016801672202</v>
+        <v>24.01553091720669</v>
       </c>
       <c r="C8">
-        <v>18.12387786071664</v>
+        <v>17.49682597187315</v>
       </c>
       <c r="D8">
-        <v>3.418732442062287</v>
+        <v>2.273108826549082</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>20.20587173257513</v>
+        <v>62.79103879759956</v>
       </c>
       <c r="G8">
-        <v>13.4857340340056</v>
+        <v>2.078340901958356</v>
       </c>
       <c r="H8">
-        <v>15.00431184426951</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
+      <c r="J8">
+        <v>8.209326910481275</v>
+      </c>
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.55196554046611</v>
+        <v>28.39238771567926</v>
       </c>
       <c r="C9">
-        <v>20.92795847447277</v>
+        <v>20.75645556822852</v>
       </c>
       <c r="D9">
-        <v>3.410060782396516</v>
+        <v>2.644758059360393</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>22.37390614947355</v>
+        <v>71.73281511418791</v>
       </c>
       <c r="G9">
-        <v>15.28733630814223</v>
+        <v>2.036821754533522</v>
       </c>
       <c r="H9">
-        <v>16.0410756937282</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
+      <c r="J9">
+        <v>8.944853422386277</v>
+      </c>
       <c r="K9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.22077186798484</v>
+        <v>31.44744176708444</v>
       </c>
       <c r="C10">
-        <v>22.80583731883212</v>
+        <v>23.04121813362863</v>
       </c>
       <c r="D10">
-        <v>3.419901547351154</v>
+        <v>2.927066825466076</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>24.14085911815766</v>
+        <v>78.23281902262545</v>
       </c>
       <c r="G10">
-        <v>16.89439761130481</v>
+        <v>2.00581234893683</v>
       </c>
       <c r="H10">
-        <v>17.02076423812561</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
+      <c r="J10">
+        <v>9.518272517352122</v>
+      </c>
       <c r="K10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.38048805027606</v>
+        <v>32.81383656406761</v>
       </c>
       <c r="C11">
-        <v>23.62233092567195</v>
+        <v>24.06656539068203</v>
       </c>
       <c r="D11">
-        <v>3.428669383633252</v>
+        <v>3.059881472628726</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>25.13894670479382</v>
+        <v>81.19613399843773</v>
       </c>
       <c r="G11">
-        <v>17.6608091287262</v>
+        <v>1.991384266212686</v>
       </c>
       <c r="H11">
-        <v>17.51628422054053</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
+      <c r="J11">
+        <v>9.788538224003315</v>
+      </c>
       <c r="K11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.81209549339404</v>
+        <v>33.32915086784489</v>
       </c>
       <c r="C12">
-        <v>23.92625600424804</v>
+        <v>24.45389954847872</v>
       </c>
       <c r="D12">
-        <v>3.43267978329278</v>
+        <v>3.111065686970454</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>25.52621161824661</v>
+        <v>82.32181231432703</v>
       </c>
       <c r="G12">
-        <v>17.953172035591</v>
+        <v>1.985851548679575</v>
       </c>
       <c r="H12">
-        <v>17.71126733133719</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
+      <c r="J12">
+        <v>9.892510473355809</v>
+      </c>
       <c r="K12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.71947253642898</v>
+        <v>33.21823922900825</v>
       </c>
       <c r="C13">
-        <v>23.86103149759177</v>
+        <v>24.37050217188799</v>
       </c>
       <c r="D13">
-        <v>3.431784121832907</v>
+        <v>3.099997834471423</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>25.44271582294597</v>
+        <v>82.07916951866434</v>
       </c>
       <c r="G13">
-        <v>17.89010917372691</v>
+        <v>1.987046616933075</v>
       </c>
       <c r="H13">
-        <v>17.66894499003273</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
+      <c r="J13">
+        <v>9.870040375124603</v>
+      </c>
       <c r="K13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.41614641496457</v>
+        <v>32.8562657814927</v>
       </c>
       <c r="C14">
-        <v>23.64743947631589</v>
+        <v>24.09844340568414</v>
       </c>
       <c r="D14">
-        <v>3.428985040550017</v>
+        <v>3.06407287405408</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>25.17076633937113</v>
+        <v>81.28865544877851</v>
       </c>
       <c r="G14">
-        <v>17.68481838562064</v>
+        <v>1.990930622269591</v>
       </c>
       <c r="H14">
-        <v>17.5321774925883</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
+      <c r="J14">
+        <v>9.797057539303676</v>
+      </c>
       <c r="K14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.22937513044289</v>
+        <v>32.63431425319094</v>
       </c>
       <c r="C15">
-        <v>23.51592807812804</v>
+        <v>23.93171310725761</v>
       </c>
       <c r="D15">
-        <v>3.427362718647196</v>
+        <v>3.042192503137666</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>25.00445363197662</v>
+        <v>80.80499473370918</v>
       </c>
       <c r="G15">
-        <v>17.55935415781794</v>
+        <v>1.993299914087883</v>
       </c>
       <c r="H15">
-        <v>17.44936451444573</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
+      <c r="J15">
+        <v>9.75257525274583</v>
+      </c>
       <c r="K15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.14391008733142</v>
+        <v>31.35777455173345</v>
       </c>
       <c r="C16">
-        <v>22.75173144022611</v>
+        <v>22.97401327652142</v>
       </c>
       <c r="D16">
-        <v>3.419420967608185</v>
+        <v>2.918496153534853</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>24.08662630568484</v>
+        <v>78.03949382460731</v>
       </c>
       <c r="G16">
-        <v>16.84460428910133</v>
+        <v>2.006746951435584</v>
       </c>
       <c r="H16">
-        <v>16.98939872489243</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
+      <c r="J16">
+        <v>9.50082092284466</v>
+      </c>
       <c r="K16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.46427384892444</v>
+        <v>30.56947275424436</v>
       </c>
       <c r="C17">
-        <v>22.27336170683293</v>
+        <v>22.38359359361124</v>
       </c>
       <c r="D17">
-        <v>3.415697575828224</v>
+        <v>2.843902455944196</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>23.6155593859649</v>
+        <v>76.34620872232946</v>
       </c>
       <c r="G17">
-        <v>16.40983557986901</v>
+        <v>2.014899227672525</v>
       </c>
       <c r="H17">
-        <v>16.72011676235484</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
+      <c r="J17">
+        <v>9.348957431512069</v>
+      </c>
       <c r="K17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.06823353225958</v>
+        <v>30.11377302559895</v>
       </c>
       <c r="C18">
-        <v>21.99465044072102</v>
+        <v>22.0426047303643</v>
       </c>
       <c r="D18">
-        <v>3.413955050392179</v>
+        <v>2.801392814160558</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>23.34815706490451</v>
+        <v>75.37268287377105</v>
       </c>
       <c r="G18">
-        <v>16.16111364677292</v>
+        <v>2.019559555025675</v>
       </c>
       <c r="H18">
-        <v>16.56991619044699</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
+      <c r="J18">
+        <v>9.262474692947103</v>
+      </c>
       <c r="K18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.9332521694876</v>
+        <v>29.95905438805842</v>
       </c>
       <c r="C19">
-        <v>21.89966644914514</v>
+        <v>21.92688355859467</v>
       </c>
       <c r="D19">
-        <v>3.413431503727408</v>
+        <v>2.787060659239348</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>23.25822720646795</v>
+        <v>75.04306681603913</v>
       </c>
       <c r="G19">
-        <v>16.07713123095197</v>
+        <v>2.02113315354603</v>
       </c>
       <c r="H19">
-        <v>16.51985994961451</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
+      <c r="J19">
+        <v>9.233334751761703</v>
+      </c>
       <c r="K19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.53715156415758</v>
+        <v>30.65361766575122</v>
       </c>
       <c r="C20">
-        <v>22.32465287095282</v>
+        <v>22.4465822133193</v>
       </c>
       <c r="D20">
-        <v>3.416052130758219</v>
+        <v>2.851800556084714</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>23.66533841514307</v>
+        <v>76.52640332105766</v>
       </c>
       <c r="G20">
-        <v>16.45597800007842</v>
+        <v>2.014034517316244</v>
       </c>
       <c r="H20">
-        <v>16.7482963417947</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
+      <c r="J20">
+        <v>9.365032315269776</v>
+      </c>
       <c r="K20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.50544339232152</v>
+        <v>32.96263188723541</v>
       </c>
       <c r="C21">
-        <v>23.7103180375803</v>
+        <v>24.17836937375636</v>
       </c>
       <c r="D21">
-        <v>3.429787842718445</v>
+        <v>3.074598360812205</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>25.25058909439623</v>
+        <v>81.52072769074127</v>
       </c>
       <c r="G21">
-        <v>17.74505817497234</v>
+        <v>1.989791881518859</v>
       </c>
       <c r="H21">
-        <v>17.57214882359423</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
+      <c r="J21">
+        <v>9.818447516400544</v>
+      </c>
       <c r="K21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.74795840796778</v>
+        <v>34.4602363641644</v>
       </c>
       <c r="C22">
-        <v>24.58534512613476</v>
+        <v>25.3054063453192</v>
       </c>
       <c r="D22">
-        <v>3.442828029901884</v>
+        <v>3.225569645217432</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>26.38164048097747</v>
+        <v>84.80727460198035</v>
       </c>
       <c r="G22">
-        <v>18.60011875673872</v>
+        <v>1.973530034620053</v>
       </c>
       <c r="H22">
-        <v>18.28275344310557</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
+      <c r="J22">
+        <v>10.12447350811688</v>
+      </c>
       <c r="K22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.0887261499906</v>
+        <v>33.66148581452023</v>
       </c>
       <c r="C23">
-        <v>24.12106431378089</v>
+        <v>24.70389510964616</v>
       </c>
       <c r="D23">
-        <v>3.435470104996278</v>
+        <v>3.144399420049204</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>25.7768401602834</v>
+        <v>83.0500342677046</v>
       </c>
       <c r="G23">
-        <v>18.14255848923593</v>
+        <v>1.982256632623935</v>
       </c>
       <c r="H23">
-        <v>17.86556021445417</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
+      <c r="J23">
+        <v>9.960138104083684</v>
+      </c>
       <c r="K23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.50422010299725</v>
+        <v>30.61558361119601</v>
       </c>
       <c r="C24">
-        <v>22.30147564193098</v>
+        <v>22.41810995943181</v>
       </c>
       <c r="D24">
-        <v>3.415890601907993</v>
+        <v>2.848228674770329</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>23.64282266564433</v>
+        <v>76.44493763355192</v>
       </c>
       <c r="G24">
-        <v>16.43511317722363</v>
+        <v>2.014425533839912</v>
       </c>
       <c r="H24">
-        <v>16.73554199753347</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
+      <c r="J24">
+        <v>9.357762308175102</v>
+      </c>
       <c r="K24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.51936033228107</v>
+        <v>27.23978373085522</v>
       </c>
       <c r="C25">
-        <v>20.2019309874165</v>
+        <v>19.896782890028</v>
       </c>
       <c r="D25">
-        <v>3.409798783801244</v>
+        <v>2.543270056225731</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>21.75663892610277</v>
+        <v>69.33147669245436</v>
       </c>
       <c r="G25">
-        <v>14.77676016463314</v>
+        <v>2.04808180498117</v>
       </c>
       <c r="H25">
-        <v>15.72328483340936</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
+      <c r="J25">
+        <v>8.740644671016943</v>
+      </c>
       <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_7/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.64210692051073</v>
+        <v>12.6147463415356</v>
       </c>
       <c r="C2">
-        <v>17.96277060300097</v>
+        <v>7.869697401252592</v>
       </c>
       <c r="D2">
-        <v>2.324074638407253</v>
+        <v>6.957224881959791</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>64.03965936479828</v>
+        <v>26.4602426950509</v>
       </c>
       <c r="G2">
-        <v>2.072601174205064</v>
+        <v>31.14277456831384</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>10.90655760315042</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>16.31379656860053</v>
       </c>
       <c r="J2">
-        <v>8.307679332238294</v>
+        <v>6.893398714533432</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11.48177867023832</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.67853757230682</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>13.2494315189846</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.79929793287835</v>
+        <v>11.76648125611887</v>
       </c>
       <c r="C3">
-        <v>16.59279617316826</v>
+        <v>7.328832140496948</v>
       </c>
       <c r="D3">
-        <v>2.17621469291622</v>
+        <v>6.670626591859706</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>60.40196539151091</v>
+        <v>26.01682841864127</v>
       </c>
       <c r="G3">
-        <v>2.089292702901626</v>
+        <v>30.5554803471056</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>10.91331825192446</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>16.3541587395097</v>
       </c>
       <c r="J3">
-        <v>8.025676300969208</v>
+        <v>6.842493306555129</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.74500981815745</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>12.15241457194014</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>13.46224136753004</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.62411597091317</v>
+        <v>11.21544763285306</v>
       </c>
       <c r="C4">
-        <v>15.7195903422203</v>
+        <v>6.978014736814122</v>
       </c>
       <c r="D4">
-        <v>2.08507382937803</v>
+        <v>6.491363234220046</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>58.14063388385377</v>
+        <v>25.76207203518349</v>
       </c>
       <c r="G4">
-        <v>2.09964118407503</v>
+        <v>30.219544225077</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>10.92432822085185</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>16.39069253543603</v>
       </c>
       <c r="J4">
-        <v>7.857788747586316</v>
+        <v>6.814573030396764</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10.26749157023841</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.82392170221508</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>13.59588073387875</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.13387363015738</v>
+        <v>10.9832580876718</v>
       </c>
       <c r="C5">
-        <v>15.35535153396658</v>
+        <v>6.830307184637356</v>
       </c>
       <c r="D5">
-        <v>2.047755323379203</v>
+        <v>6.417590993941007</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>57.21211233956518</v>
+        <v>25.66265252704665</v>
       </c>
       <c r="G5">
-        <v>2.103891473138368</v>
+        <v>30.08882808980118</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>10.93048039193015</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>16.40841889802686</v>
       </c>
       <c r="J5">
-        <v>7.790663198995521</v>
+        <v>6.804021855109223</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>10.06656322744633</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.68888194916639</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>13.65110896346633</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.05177504654841</v>
+        <v>10.94424051413629</v>
       </c>
       <c r="C6">
-        <v>15.29435363465976</v>
+        <v>6.8054926714572</v>
       </c>
       <c r="D6">
-        <v>2.041545488487302</v>
+        <v>6.405300982800258</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>57.05751326331189</v>
+        <v>25.64640907791811</v>
       </c>
       <c r="G6">
-        <v>2.104599453831721</v>
+        <v>30.06749500276024</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>10.93160083109847</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>16.41153043093803</v>
       </c>
       <c r="J6">
-        <v>7.779594254046532</v>
+        <v>6.802319383459671</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>10.03281629859353</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.66639379273562</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>13.66032663394149</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.61755074730925</v>
+        <v>11.21234723261254</v>
       </c>
       <c r="C7">
-        <v>15.71471251625292</v>
+        <v>6.976041970121035</v>
       </c>
       <c r="D7">
-        <v>2.08457136827057</v>
+        <v>6.490371085193544</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>58.12813973280312</v>
+        <v>25.76071344697858</v>
       </c>
       <c r="G7">
-        <v>2.09969836054497</v>
+        <v>30.21775636126496</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>10.92440452524792</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>16.39092025822616</v>
       </c>
       <c r="J7">
-        <v>7.856878279641869</v>
+        <v>6.814427403805001</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>10.26480744712088</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.82210499750587</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>13.59662241917613</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.01553091720669</v>
+        <v>12.32850327846703</v>
       </c>
       <c r="C8">
-        <v>17.49682597187315</v>
+        <v>7.687069810429061</v>
       </c>
       <c r="D8">
-        <v>2.273108826549082</v>
+        <v>6.859148850767641</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.79103879759956</v>
+        <v>26.30372159417382</v>
       </c>
       <c r="G8">
-        <v>2.078340901958356</v>
+        <v>30.9351496379142</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>10.90742927402115</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>16.32520372137416</v>
       </c>
       <c r="J8">
-        <v>8.209326910481275</v>
+        <v>6.875147104335554</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>11.23294739909588</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.49837129358703</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>13.32220443329097</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.39238771567926</v>
+        <v>14.27987193318911</v>
       </c>
       <c r="C9">
-        <v>20.75645556822852</v>
+        <v>8.934610916850131</v>
       </c>
       <c r="D9">
-        <v>2.644758059360393</v>
+        <v>7.552171141778516</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.73281511418791</v>
+        <v>27.50713739434175</v>
       </c>
       <c r="G9">
-        <v>2.036821754533522</v>
+        <v>32.53771949257172</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>10.93124903524788</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>16.29489979436979</v>
       </c>
       <c r="J9">
-        <v>8.944853422386277</v>
+        <v>7.021192082325714</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.93303242516302</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.77392282313886</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>12.80664658808295</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.44744176708444</v>
+        <v>15.57196973158955</v>
       </c>
       <c r="C10">
-        <v>23.04121813362863</v>
+        <v>9.764261059988993</v>
       </c>
       <c r="D10">
-        <v>2.927066825466076</v>
+        <v>8.03842520098398</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>78.23281902262545</v>
+        <v>28.47488477456667</v>
       </c>
       <c r="G10">
-        <v>2.00581234893683</v>
+        <v>33.83366991696666</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>10.98729571574957</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>16.34017484295075</v>
       </c>
       <c r="J10">
-        <v>9.518272517352122</v>
+        <v>7.145579520896157</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.06300398774182</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.67202473739699</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>12.44014613865565</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.81383656406761</v>
+        <v>16.12975991736612</v>
       </c>
       <c r="C11">
-        <v>24.06656539068203</v>
+        <v>10.12340260435282</v>
       </c>
       <c r="D11">
-        <v>3.059881472628726</v>
+        <v>8.253938294729981</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>81.19613399843773</v>
+        <v>28.93300908822827</v>
       </c>
       <c r="G11">
-        <v>1.991384266212686</v>
+        <v>34.4486330331666</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>11.02197759735941</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>16.37707691045294</v>
       </c>
       <c r="J11">
-        <v>9.788538224003315</v>
+        <v>7.206002809523937</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.55171456833373</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>15.0708286038399</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>12.27574137302416</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.32915086784489</v>
+        <v>16.33672909232754</v>
       </c>
       <c r="C12">
-        <v>24.45389954847872</v>
+        <v>10.25682304192036</v>
       </c>
       <c r="D12">
-        <v>3.111065686970454</v>
+        <v>8.334683733280938</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>82.32181231432703</v>
+        <v>29.10903515731758</v>
       </c>
       <c r="G12">
-        <v>1.985851548679575</v>
+        <v>34.68512681715836</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>11.03649943792434</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>16.39353264592265</v>
       </c>
       <c r="J12">
-        <v>9.892510473355809</v>
+        <v>7.229445059839396</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.73318293705714</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>15.22036309267516</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>12.21378994839866</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.21823922900825</v>
+        <v>16.29234280244772</v>
       </c>
       <c r="C13">
-        <v>24.37050217188799</v>
+        <v>10.22820245012379</v>
       </c>
       <c r="D13">
-        <v>3.099997834471423</v>
+        <v>8.317332860337419</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>82.07916951866434</v>
+        <v>29.07101204645674</v>
       </c>
       <c r="G13">
-        <v>1.987046616933075</v>
+        <v>34.63403314132346</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>11.03330905749486</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>16.3898760367892</v>
       </c>
       <c r="J13">
-        <v>9.870040375124603</v>
+        <v>7.224371242245854</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.69425963184429</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>15.18822527089051</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>12.22711918996725</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.8562657814927</v>
+        <v>16.1468723028323</v>
       </c>
       <c r="C14">
-        <v>24.09844340568414</v>
+        <v>10.13443057728407</v>
       </c>
       <c r="D14">
-        <v>3.06407287405408</v>
+        <v>8.260598834714616</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>81.28865544877851</v>
+        <v>28.94744001652487</v>
       </c>
       <c r="G14">
-        <v>1.990930622269591</v>
+        <v>34.46801714578417</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>11.02314409878494</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>16.37838020645877</v>
       </c>
       <c r="J14">
-        <v>9.797057539303676</v>
+        <v>7.207920116103788</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.56671586963101</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>15.08316103963722</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>12.2706386436905</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.63431425319094</v>
+        <v>16.05721523630558</v>
       </c>
       <c r="C15">
-        <v>23.93171310725761</v>
+        <v>10.07665826277839</v>
       </c>
       <c r="D15">
-        <v>3.042192503137666</v>
+        <v>8.225733769863492</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.80499473370918</v>
+        <v>28.8720791436443</v>
       </c>
       <c r="G15">
-        <v>1.993299914087883</v>
+        <v>34.36679807472333</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>11.01710062106265</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>16.37166596254578</v>
       </c>
       <c r="J15">
-        <v>9.75257525274583</v>
+        <v>7.197916693282061</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.48812477831868</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>15.01861080016063</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>12.29733443855669</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.35777455173345</v>
+        <v>15.53491829766354</v>
       </c>
       <c r="C16">
-        <v>22.97401327652142</v>
+        <v>9.740426766263418</v>
       </c>
       <c r="D16">
-        <v>2.918496153534853</v>
+        <v>8.024222245673023</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>78.03949382460731</v>
+        <v>28.44530279368141</v>
       </c>
       <c r="G16">
-        <v>2.006746951435584</v>
+        <v>33.79398915184789</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>10.98521978207825</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>16.33810299559268</v>
       </c>
       <c r="J16">
-        <v>9.50082092284466</v>
+        <v>7.14170875534401</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.03055987387124</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.64575836399722</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>12.45093463594301</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.56947275424436</v>
+        <v>15.20686555311904</v>
       </c>
       <c r="C17">
-        <v>22.38359359361124</v>
+        <v>9.529513954541112</v>
       </c>
       <c r="D17">
-        <v>2.843902455944196</v>
+        <v>7.899108435928865</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.34620872232946</v>
+        <v>28.18805065029707</v>
       </c>
       <c r="G17">
-        <v>2.014899227672525</v>
+        <v>33.44907563506558</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>10.96806254370988</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>16.32178651335871</v>
       </c>
       <c r="J17">
-        <v>9.348957431512069</v>
+        <v>7.108216826354314</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.74340449851953</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.414464392545</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>12.54573739007808</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.11377302559895</v>
+        <v>15.01535166252353</v>
       </c>
       <c r="C18">
-        <v>22.0426047303643</v>
+        <v>9.406479734437031</v>
       </c>
       <c r="D18">
-        <v>2.801392814160558</v>
+        <v>7.826613213804255</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.37268287377105</v>
+        <v>28.04177166204272</v>
       </c>
       <c r="G18">
-        <v>2.019559555025675</v>
+        <v>33.25308608646777</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>10.95905469013652</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>16.31392822898268</v>
       </c>
       <c r="J18">
-        <v>9.262474692947103</v>
+        <v>7.08931394463966</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.57585417987594</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>14.28051643157186</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>12.60048538365107</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.95905438805842</v>
+        <v>14.95002112229701</v>
       </c>
       <c r="C19">
-        <v>21.92688355859467</v>
+        <v>9.364525136087359</v>
       </c>
       <c r="D19">
-        <v>2.787060659239348</v>
+        <v>7.801977617516047</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>75.04306681603913</v>
+        <v>27.99253453121659</v>
       </c>
       <c r="G19">
-        <v>2.02113315354603</v>
+        <v>33.18713999439204</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>10.95615053542789</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>16.31152558577234</v>
       </c>
       <c r="J19">
-        <v>9.233334751761703</v>
+        <v>7.082975436726108</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.51871339569393</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.23500982804353</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>12.61906073246006</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.65361766575122</v>
+        <v>15.2420794548799</v>
       </c>
       <c r="C20">
-        <v>22.4465822133193</v>
+        <v>9.55214393702698</v>
       </c>
       <c r="D20">
-        <v>2.851800556084714</v>
+        <v>7.912482556929762</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.52640332105766</v>
+        <v>28.21526133844226</v>
       </c>
       <c r="G20">
-        <v>2.014034517316244</v>
+        <v>33.48554460840724</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>10.96979941137921</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>16.32336445462307</v>
       </c>
       <c r="J20">
-        <v>9.365032315269776</v>
+        <v>7.11174469186224</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.77421932197777</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.43918125994415</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>12.53562291116583</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.96263188723541</v>
+        <v>16.18971548075593</v>
       </c>
       <c r="C21">
-        <v>24.17836937375636</v>
+        <v>10.16204323417981</v>
       </c>
       <c r="D21">
-        <v>3.074598360812205</v>
+        <v>8.277286786858667</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>81.52072769074127</v>
+        <v>28.9836672731848</v>
       </c>
       <c r="G21">
-        <v>1.989791881518859</v>
+        <v>34.51668206869974</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>11.02609156535948</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>16.3816883583035</v>
       </c>
       <c r="J21">
-        <v>9.818447516400544</v>
+        <v>7.212736904495151</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>14.60427576951727</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.11406178543765</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>12.25784787629095</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.4602363641644</v>
+        <v>16.78428492856064</v>
       </c>
       <c r="C22">
-        <v>25.3054063453192</v>
+        <v>10.54564159345849</v>
       </c>
       <c r="D22">
-        <v>3.225569645217432</v>
+        <v>8.510652321097504</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>84.80727460198035</v>
+        <v>29.50068537803974</v>
       </c>
       <c r="G22">
-        <v>1.973530034620053</v>
+        <v>35.21168152222103</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>11.07100732603946</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>16.43433639663665</v>
       </c>
       <c r="J22">
-        <v>10.12447350811688</v>
+        <v>7.282016970257474</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.12583108385892</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.55803525889654</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>12.07807016221646</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.66148581452023</v>
+        <v>16.46919790016362</v>
       </c>
       <c r="C23">
-        <v>24.70389510964616</v>
+        <v>10.34226427301923</v>
       </c>
       <c r="D23">
-        <v>3.144399420049204</v>
+        <v>8.386576314834926</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>83.0500342677046</v>
+        <v>29.22339531257136</v>
       </c>
       <c r="G23">
-        <v>1.982256632623935</v>
+        <v>34.83882773980825</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>11.04626889096264</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>16.40486201586718</v>
       </c>
       <c r="J23">
-        <v>9.960138104083684</v>
+        <v>7.244738090452205</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>14.84936665535995</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>15.31649742624656</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>12.17386912710132</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.61558361119601</v>
+        <v>15.22616832454088</v>
       </c>
       <c r="C24">
-        <v>22.41810995943181</v>
+        <v>9.541918462528184</v>
       </c>
       <c r="D24">
-        <v>2.848228674770329</v>
+        <v>7.90643787494896</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.44493763355192</v>
+        <v>28.2029543422273</v>
       </c>
       <c r="G24">
-        <v>2.014425533839912</v>
+        <v>33.46904980058209</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>10.96901151214646</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>16.32264633616995</v>
       </c>
       <c r="J24">
-        <v>9.357762308175102</v>
+        <v>7.110148647930171</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.76029560871195</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.42800979145793</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>12.54019490299927</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.23978373085522</v>
+        <v>13.77707299314015</v>
       </c>
       <c r="C25">
-        <v>19.896782890028</v>
+        <v>8.612573108106636</v>
       </c>
       <c r="D25">
-        <v>2.543270056225731</v>
+        <v>7.368431377263152</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.33147669245436</v>
+        <v>27.1668107238496</v>
       </c>
       <c r="G25">
-        <v>2.04808180498117</v>
+        <v>32.08326151355609</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>10.91830869104249</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>16.29178455549472</v>
       </c>
       <c r="J25">
-        <v>8.740644671016943</v>
+        <v>6.978725835276567</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>12.49418376685181</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.43520200240631</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>12.94385114873047</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_7/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.6147463415356</v>
+        <v>10.36309431898779</v>
       </c>
       <c r="C2">
-        <v>7.869697401252592</v>
+        <v>6.008478398229731</v>
       </c>
       <c r="D2">
-        <v>6.957224881959791</v>
+        <v>9.468811434381657</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>26.4602426950509</v>
+        <v>36.79618150162513</v>
       </c>
       <c r="G2">
-        <v>31.14277456831384</v>
+        <v>40.19051235771648</v>
       </c>
       <c r="H2">
-        <v>10.90655760315042</v>
+        <v>17.15375422720692</v>
       </c>
       <c r="I2">
-        <v>16.31379656860053</v>
+        <v>24.78883611322316</v>
       </c>
       <c r="J2">
-        <v>6.893398714533432</v>
+        <v>11.24723541890542</v>
       </c>
       <c r="K2">
-        <v>11.48177867023832</v>
+        <v>10.88095218673438</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>12.67853757230682</v>
+        <v>16.79539424430797</v>
       </c>
       <c r="N2">
-        <v>13.2494315189846</v>
+        <v>20.45882285062337</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.76648125611887</v>
+        <v>10.1333009912424</v>
       </c>
       <c r="C3">
-        <v>7.328832140496948</v>
+        <v>5.849672283108495</v>
       </c>
       <c r="D3">
-        <v>6.670626591859706</v>
+        <v>9.436519386766914</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.01682841864127</v>
+        <v>36.8240459191758</v>
       </c>
       <c r="G3">
-        <v>30.5554803471056</v>
+        <v>40.20620052446105</v>
       </c>
       <c r="H3">
-        <v>10.91331825192446</v>
+        <v>17.19580478590421</v>
       </c>
       <c r="I3">
-        <v>16.3541587395097</v>
+        <v>24.85989192301721</v>
       </c>
       <c r="J3">
-        <v>6.842493306555129</v>
+        <v>11.26420184048702</v>
       </c>
       <c r="K3">
-        <v>10.74500981815745</v>
+        <v>10.73596941530452</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.15241457194014</v>
+        <v>16.73433211890373</v>
       </c>
       <c r="N3">
-        <v>13.46224136753004</v>
+        <v>20.52118954243674</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.21544763285306</v>
+        <v>9.991849509082098</v>
       </c>
       <c r="C4">
-        <v>6.978014736814122</v>
+        <v>5.751430126401396</v>
       </c>
       <c r="D4">
-        <v>6.491363234220046</v>
+        <v>9.418246110746011</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.76207203518349</v>
+        <v>36.84927329810952</v>
       </c>
       <c r="G4">
-        <v>30.219544225077</v>
+        <v>40.22654818640714</v>
       </c>
       <c r="H4">
-        <v>10.92432822085185</v>
+        <v>17.22431316792005</v>
       </c>
       <c r="I4">
-        <v>16.39069253543603</v>
+        <v>24.90790012352476</v>
       </c>
       <c r="J4">
-        <v>6.814573030396764</v>
+        <v>11.27616933791612</v>
       </c>
       <c r="K4">
-        <v>10.26749157023841</v>
+        <v>10.64826219304587</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11.82392170221508</v>
+        <v>16.69983547633253</v>
       </c>
       <c r="N4">
-        <v>13.59588073387875</v>
+        <v>20.56128191324386</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.9832580876718</v>
+        <v>9.934205135428362</v>
       </c>
       <c r="C5">
-        <v>6.830307184637356</v>
+        <v>5.711276370208073</v>
       </c>
       <c r="D5">
-        <v>6.417590993941007</v>
+        <v>9.411195820166467</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.66265252704665</v>
+        <v>36.8615934638434</v>
       </c>
       <c r="G5">
-        <v>30.08882808980118</v>
+        <v>40.23753067495275</v>
       </c>
       <c r="H5">
-        <v>10.93048039193015</v>
+        <v>17.23660635902714</v>
       </c>
       <c r="I5">
-        <v>16.40841889802686</v>
+        <v>24.92856372933726</v>
       </c>
       <c r="J5">
-        <v>6.804021855109223</v>
+        <v>11.28143607634191</v>
       </c>
       <c r="K5">
-        <v>10.06656322744633</v>
+        <v>10.61289392274797</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.68888194916639</v>
+        <v>16.6865416526066</v>
       </c>
       <c r="N5">
-        <v>13.65110896346633</v>
+        <v>20.57807350223735</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.94424051413629</v>
+        <v>9.924635849884716</v>
       </c>
       <c r="C6">
-        <v>6.8054926714572</v>
+        <v>5.704603635443942</v>
       </c>
       <c r="D6">
-        <v>6.405300982800258</v>
+        <v>9.410049205520989</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>25.64640907791811</v>
+        <v>36.86376235199712</v>
       </c>
       <c r="G6">
-        <v>30.06749500276024</v>
+        <v>40.23951667699048</v>
       </c>
       <c r="H6">
-        <v>10.93160083109847</v>
+        <v>17.23868843744754</v>
       </c>
       <c r="I6">
-        <v>16.41153043093803</v>
+        <v>24.93206129248586</v>
       </c>
       <c r="J6">
-        <v>6.802319383459671</v>
+        <v>11.28233416493823</v>
       </c>
       <c r="K6">
-        <v>10.03281629859353</v>
+        <v>10.60704483095217</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.66639379273562</v>
+        <v>16.68438064868356</v>
       </c>
       <c r="N6">
-        <v>13.66032663394149</v>
+        <v>20.58088916746848</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.21234723261254</v>
+        <v>9.991071985678472</v>
       </c>
       <c r="C7">
-        <v>6.976041970121035</v>
+        <v>5.750888993119414</v>
       </c>
       <c r="D7">
-        <v>6.490371085193544</v>
+        <v>9.418149416940174</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.76071344697858</v>
+        <v>36.8494311959436</v>
       </c>
       <c r="G7">
-        <v>30.21775636126496</v>
+        <v>40.22668541192056</v>
       </c>
       <c r="H7">
-        <v>10.92440452524792</v>
+        <v>17.22447622252558</v>
       </c>
       <c r="I7">
-        <v>16.39092025822616</v>
+        <v>24.90817434873058</v>
       </c>
       <c r="J7">
-        <v>6.814427403805001</v>
+        <v>11.27623878823868</v>
       </c>
       <c r="K7">
-        <v>10.26480744712088</v>
+        <v>10.64778363695697</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.82210499750587</v>
+        <v>16.69965308513421</v>
       </c>
       <c r="N7">
-        <v>13.59662241917613</v>
+        <v>20.56150653212963</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.32850327846703</v>
+        <v>10.28398782191298</v>
       </c>
       <c r="C8">
-        <v>7.687069810429061</v>
+        <v>5.95391280850754</v>
       </c>
       <c r="D8">
-        <v>6.859148850767641</v>
+        <v>9.457357930783443</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>26.30372159417382</v>
+        <v>36.80410339760385</v>
       </c>
       <c r="G8">
-        <v>30.9351496379142</v>
+        <v>40.19369594606872</v>
       </c>
       <c r="H8">
-        <v>10.90742927402115</v>
+        <v>17.16769488019919</v>
       </c>
       <c r="I8">
-        <v>16.32520372137416</v>
+        <v>24.81242632035666</v>
       </c>
       <c r="J8">
-        <v>6.875147104335554</v>
+        <v>11.25276380871212</v>
       </c>
       <c r="K8">
-        <v>11.23294739909588</v>
+        <v>10.83071562063993</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>12.49837129358703</v>
+        <v>16.7737248202589</v>
       </c>
       <c r="N8">
-        <v>13.32220443329097</v>
+        <v>20.47995426987181</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.27987193318911</v>
+        <v>10.85183346552037</v>
       </c>
       <c r="C9">
-        <v>8.934610916850131</v>
+        <v>6.343503305270081</v>
       </c>
       <c r="D9">
-        <v>7.552171141778516</v>
+        <v>9.546322739937999</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>27.50713739434175</v>
+        <v>36.77967465069341</v>
       </c>
       <c r="G9">
-        <v>32.53771949257172</v>
+        <v>40.21412277215409</v>
       </c>
       <c r="H9">
-        <v>10.93124903524788</v>
+        <v>17.0777023122008</v>
       </c>
       <c r="I9">
-        <v>16.29489979436979</v>
+        <v>24.6594775848618</v>
       </c>
       <c r="J9">
-        <v>7.021192082325714</v>
+        <v>11.21902253958107</v>
       </c>
       <c r="K9">
-        <v>12.93303242516302</v>
+        <v>11.1979525886179</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.77392282313886</v>
+        <v>16.94225051864003</v>
       </c>
       <c r="N9">
-        <v>12.80664658808295</v>
+        <v>20.33424610782242</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.57196973158955</v>
+        <v>11.26029329683221</v>
       </c>
       <c r="C10">
-        <v>9.764261059988993</v>
+        <v>6.621158859460929</v>
       </c>
       <c r="D10">
-        <v>8.03842520098398</v>
+        <v>9.618682858654092</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>28.47488477456667</v>
+        <v>36.80103281621984</v>
       </c>
       <c r="G10">
-        <v>33.83366991696666</v>
+        <v>40.2810586296176</v>
       </c>
       <c r="H10">
-        <v>10.98729571574957</v>
+        <v>17.02462742064742</v>
       </c>
       <c r="I10">
-        <v>16.34017484295075</v>
+        <v>24.56841223356635</v>
       </c>
       <c r="J10">
-        <v>7.145579520896157</v>
+        <v>11.2017179432068</v>
       </c>
       <c r="K10">
-        <v>14.06300398774182</v>
+        <v>11.47039073079593</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.67202473739699</v>
+        <v>17.07953522459797</v>
       </c>
       <c r="N10">
-        <v>12.44014613865565</v>
+        <v>20.23577716226083</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.12975991736612</v>
+        <v>11.44329656072012</v>
       </c>
       <c r="C11">
-        <v>10.12340260435282</v>
+        <v>6.744975426653982</v>
       </c>
       <c r="D11">
-        <v>8.253938294729981</v>
+        <v>9.653035754799468</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>28.93300908822827</v>
+        <v>36.81926750923235</v>
       </c>
       <c r="G11">
-        <v>34.4486330331666</v>
+        <v>40.32275742305897</v>
       </c>
       <c r="H11">
-        <v>11.02197759735941</v>
+        <v>17.00331879527393</v>
       </c>
       <c r="I11">
-        <v>16.37707691045294</v>
+        <v>24.53162745002153</v>
       </c>
       <c r="J11">
-        <v>7.206002809523937</v>
+        <v>11.1954681491036</v>
       </c>
       <c r="K11">
-        <v>14.55171456833373</v>
+        <v>11.5943658374798</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.0708286038399</v>
+        <v>17.1447461735666</v>
       </c>
       <c r="N11">
-        <v>12.27574137302416</v>
+        <v>20.19282700120401</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.33672909232754</v>
+        <v>11.51212124973784</v>
       </c>
       <c r="C12">
-        <v>10.25682304192036</v>
+        <v>6.791456213662187</v>
       </c>
       <c r="D12">
-        <v>8.334683733280938</v>
+        <v>9.666243078509524</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>29.10903515731758</v>
+        <v>36.82739435718872</v>
       </c>
       <c r="G12">
-        <v>34.68512681715836</v>
+        <v>40.34015986688264</v>
       </c>
       <c r="H12">
-        <v>11.03649943792434</v>
+        <v>16.99565780565137</v>
       </c>
       <c r="I12">
-        <v>16.39353264592265</v>
+        <v>24.51836672323146</v>
       </c>
       <c r="J12">
-        <v>7.229445059839396</v>
+        <v>11.19333444373267</v>
       </c>
       <c r="K12">
-        <v>14.73318293705714</v>
+        <v>11.64127438001527</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.22036309267516</v>
+        <v>17.16982143577661</v>
       </c>
       <c r="N12">
-        <v>12.21378994839866</v>
+        <v>20.17682673570284</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.29234280244772</v>
+        <v>11.49732081112666</v>
       </c>
       <c r="C13">
-        <v>10.22820245012379</v>
+        <v>6.781464511767808</v>
       </c>
       <c r="D13">
-        <v>8.317332860337419</v>
+        <v>9.663389939196456</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>29.07101204645674</v>
+        <v>36.82558981851449</v>
       </c>
       <c r="G13">
-        <v>34.63403314132346</v>
+        <v>40.33634035331994</v>
       </c>
       <c r="H13">
-        <v>11.03330905749486</v>
+        <v>16.99728957959326</v>
       </c>
       <c r="I13">
-        <v>16.3898760367892</v>
+        <v>24.52119288729061</v>
       </c>
       <c r="J13">
-        <v>7.224371242245854</v>
+        <v>11.19378362005131</v>
       </c>
       <c r="K13">
-        <v>14.69425963184429</v>
+        <v>11.63117417224584</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.18822527089051</v>
+        <v>17.16440432463455</v>
       </c>
       <c r="N13">
-        <v>12.22711918996725</v>
+        <v>20.18026095406297</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.1468723028323</v>
+        <v>11.44896871174677</v>
       </c>
       <c r="C14">
-        <v>10.13443057728407</v>
+        <v>6.748807821869129</v>
       </c>
       <c r="D14">
-        <v>8.260598834714616</v>
+        <v>9.654118394508531</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>28.94744001652487</v>
+        <v>36.81991164586554</v>
       </c>
       <c r="G14">
-        <v>34.46801714578417</v>
+        <v>40.32415686407864</v>
       </c>
       <c r="H14">
-        <v>11.02314409878494</v>
+        <v>17.00268033952754</v>
       </c>
       <c r="I14">
-        <v>16.37838020645877</v>
+        <v>24.53052306875794</v>
       </c>
       <c r="J14">
-        <v>7.207920116103788</v>
+        <v>11.19528794104611</v>
       </c>
       <c r="K14">
-        <v>14.56671586963101</v>
+        <v>11.59822604441166</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.08316103963722</v>
+        <v>17.14680157978933</v>
       </c>
       <c r="N14">
-        <v>12.2706386436905</v>
+        <v>20.19150536455897</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.05721523630558</v>
+        <v>11.41928781449196</v>
       </c>
       <c r="C15">
-        <v>10.07665826277839</v>
+        <v>6.728750454664759</v>
       </c>
       <c r="D15">
-        <v>8.225733769863492</v>
+        <v>9.648464934710708</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>28.8720791436443</v>
+        <v>36.81659259864303</v>
       </c>
       <c r="G15">
-        <v>34.36679807472333</v>
+        <v>40.31690385914939</v>
       </c>
       <c r="H15">
-        <v>11.01710062106265</v>
+        <v>17.00603549642639</v>
       </c>
       <c r="I15">
-        <v>16.37166596254578</v>
+        <v>24.53632522326827</v>
       </c>
       <c r="J15">
-        <v>7.197916693282061</v>
+        <v>11.19623970879495</v>
       </c>
       <c r="K15">
-        <v>14.48812477831868</v>
+        <v>11.57803810833974</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.01861080016063</v>
+        <v>17.13606857514743</v>
       </c>
       <c r="N15">
-        <v>12.29733443855669</v>
+        <v>20.19842724203881</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.53491829766354</v>
+        <v>11.2482709338505</v>
       </c>
       <c r="C16">
-        <v>9.740426766263418</v>
+        <v>6.613012867223736</v>
       </c>
       <c r="D16">
-        <v>8.024222245673023</v>
+        <v>9.616466045666289</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>28.44530279368141</v>
+        <v>36.80001230245721</v>
       </c>
       <c r="G16">
-        <v>33.79398915184789</v>
+        <v>40.27855944152747</v>
       </c>
       <c r="H16">
-        <v>10.98521978207825</v>
+        <v>17.02607708002463</v>
       </c>
       <c r="I16">
-        <v>16.33810299559268</v>
+        <v>24.57090972692623</v>
       </c>
       <c r="J16">
-        <v>7.14170875534401</v>
+        <v>11.20215899874625</v>
       </c>
       <c r="K16">
-        <v>14.03055987387124</v>
+        <v>11.46228570549518</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.64575836399722</v>
+        <v>17.0753277503599</v>
       </c>
       <c r="N16">
-        <v>12.45093463594301</v>
+        <v>20.23862106371916</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.20686555311904</v>
+        <v>11.14258655902845</v>
       </c>
       <c r="C17">
-        <v>9.529513954541112</v>
+        <v>6.541338480311881</v>
       </c>
       <c r="D17">
-        <v>7.899108435928865</v>
+        <v>9.597198042237071</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>28.18805065029707</v>
+        <v>36.79202070671429</v>
       </c>
       <c r="G17">
-        <v>33.44907563506558</v>
+        <v>40.25791418413615</v>
       </c>
       <c r="H17">
-        <v>10.96806254370988</v>
+        <v>17.03909845523774</v>
       </c>
       <c r="I17">
-        <v>16.32178651335871</v>
+        <v>24.59331600970674</v>
       </c>
       <c r="J17">
-        <v>7.108216826354314</v>
+        <v>11.2062055618733</v>
       </c>
       <c r="K17">
-        <v>13.74340449851953</v>
+        <v>11.39125426629552</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.414464392545</v>
+        <v>17.03876113681252</v>
       </c>
       <c r="N17">
-        <v>12.54573739007808</v>
+        <v>20.26375012933637</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.01535166252353</v>
+        <v>11.08153941709587</v>
       </c>
       <c r="C18">
-        <v>9.406479734437031</v>
+        <v>6.499881456899582</v>
       </c>
       <c r="D18">
-        <v>7.826613213804255</v>
+        <v>9.586251241247446</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>28.04177166204272</v>
+        <v>36.78822623298178</v>
       </c>
       <c r="G18">
-        <v>33.25308608646777</v>
+        <v>40.24709887106479</v>
       </c>
       <c r="H18">
-        <v>10.95905469013652</v>
+        <v>17.0468548671337</v>
       </c>
       <c r="I18">
-        <v>16.31392822898268</v>
+        <v>24.60664028942232</v>
       </c>
       <c r="J18">
-        <v>7.08931394463966</v>
+        <v>11.20868574448965</v>
       </c>
       <c r="K18">
-        <v>13.57585417987594</v>
+        <v>11.35040535441375</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.28051643157186</v>
+        <v>17.01798968851728</v>
       </c>
       <c r="N18">
-        <v>12.60048538365107</v>
+        <v>20.27837732158396</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.95002112229701</v>
+        <v>11.06082744353631</v>
       </c>
       <c r="C19">
-        <v>9.364525136087359</v>
+        <v>6.485806530047481</v>
       </c>
       <c r="D19">
-        <v>7.801977617516047</v>
+        <v>9.582568374130579</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>27.99253453121659</v>
+        <v>36.78707932956557</v>
       </c>
       <c r="G19">
-        <v>33.18713999439204</v>
+        <v>40.24361906809989</v>
       </c>
       <c r="H19">
-        <v>10.95615053542789</v>
+        <v>17.04952687580256</v>
       </c>
       <c r="I19">
-        <v>16.31152558577234</v>
+        <v>24.61122663309418</v>
       </c>
       <c r="J19">
-        <v>7.082975436726108</v>
+        <v>11.20955172770534</v>
       </c>
       <c r="K19">
-        <v>13.51871339569393</v>
+        <v>11.3365770930451</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.23500982804353</v>
+        <v>17.01100207144879</v>
       </c>
       <c r="N19">
-        <v>12.61906073246006</v>
+        <v>20.28335969089261</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.2420794548799</v>
+        <v>11.1538643095915</v>
       </c>
       <c r="C20">
-        <v>9.55214393702698</v>
+        <v>6.54899269182765</v>
       </c>
       <c r="D20">
-        <v>7.912482556929762</v>
+        <v>9.599235171318506</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>28.21526133844226</v>
+        <v>36.79278843354457</v>
       </c>
       <c r="G20">
-        <v>33.48554460840724</v>
+        <v>40.26000230910795</v>
       </c>
       <c r="H20">
-        <v>10.96979941137921</v>
+        <v>17.0376846854418</v>
       </c>
       <c r="I20">
-        <v>16.32336445462307</v>
+        <v>24.59088560689382</v>
       </c>
       <c r="J20">
-        <v>7.11174469186224</v>
+        <v>11.20575899582556</v>
       </c>
       <c r="K20">
-        <v>13.77421932197777</v>
+        <v>11.39881533553504</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.43918125994415</v>
+        <v>17.04262684418948</v>
       </c>
       <c r="N20">
-        <v>12.53562291116583</v>
+        <v>20.26105713666153</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.18971548075593</v>
+        <v>11.46318431946603</v>
       </c>
       <c r="C21">
-        <v>10.16204323417981</v>
+        <v>6.758411258333963</v>
       </c>
       <c r="D21">
-        <v>8.277286786858667</v>
+        <v>9.656836345283494</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>28.9836672731848</v>
+        <v>36.82154633501359</v>
       </c>
       <c r="G21">
-        <v>34.51668206869974</v>
+        <v>40.32769175440596</v>
       </c>
       <c r="H21">
-        <v>11.02609156535948</v>
+        <v>17.00108586336051</v>
       </c>
       <c r="I21">
-        <v>16.3816883583035</v>
+        <v>24.52776440403087</v>
       </c>
       <c r="J21">
-        <v>7.212736904495151</v>
+        <v>11.19483976586369</v>
       </c>
       <c r="K21">
-        <v>14.60427576951727</v>
+        <v>11.60790508910832</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.11406178543765</v>
+        <v>17.15196171106832</v>
       </c>
       <c r="N21">
-        <v>12.25784787629095</v>
+        <v>20.18819545180543</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.78428492856064</v>
+        <v>11.66254660053295</v>
       </c>
       <c r="C22">
-        <v>10.54564159345849</v>
+        <v>6.892893476721837</v>
       </c>
       <c r="D22">
-        <v>8.510652321097504</v>
+        <v>9.695635951946187</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>29.50068537803974</v>
+        <v>36.84746047859357</v>
       </c>
       <c r="G22">
-        <v>35.21168152222103</v>
+        <v>40.38132288883387</v>
       </c>
       <c r="H22">
-        <v>11.07100732603946</v>
+        <v>16.97954542847979</v>
       </c>
       <c r="I22">
-        <v>16.43433639663665</v>
+        <v>24.49041037275475</v>
       </c>
       <c r="J22">
-        <v>7.282016970257474</v>
+        <v>11.18906108296702</v>
       </c>
       <c r="K22">
-        <v>15.12583108385892</v>
+        <v>11.7443154354895</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.55803525889654</v>
+        <v>17.22563322532379</v>
       </c>
       <c r="N22">
-        <v>12.07807016221646</v>
+        <v>20.1421145790063</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.46919790016362</v>
+        <v>11.55642123950658</v>
       </c>
       <c r="C23">
-        <v>10.34226427301923</v>
+        <v>6.821350720701449</v>
       </c>
       <c r="D23">
-        <v>8.386576314834926</v>
+        <v>9.674824957884683</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>29.22339531257136</v>
+        <v>36.83297952525656</v>
       </c>
       <c r="G23">
-        <v>34.83882773980825</v>
+        <v>40.35184188720486</v>
       </c>
       <c r="H23">
-        <v>11.04626889096264</v>
+        <v>16.99082416577406</v>
       </c>
       <c r="I23">
-        <v>16.40486201586718</v>
+        <v>24.50998967134343</v>
       </c>
       <c r="J23">
-        <v>7.244738090452205</v>
+        <v>11.19202116390429</v>
       </c>
       <c r="K23">
-        <v>14.84936665535995</v>
+        <v>11.67154706119211</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.31649742624656</v>
+        <v>17.18611596616184</v>
       </c>
       <c r="N23">
-        <v>12.17386912710132</v>
+        <v>20.16656840527764</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.22616832454088</v>
+        <v>11.14876652949144</v>
       </c>
       <c r="C24">
-        <v>9.541918462528184</v>
+        <v>6.545532999263179</v>
       </c>
       <c r="D24">
-        <v>7.90643787494896</v>
+        <v>9.598313777775406</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>28.2029543422273</v>
+        <v>36.792438852024</v>
       </c>
       <c r="G24">
-        <v>33.46904980058209</v>
+        <v>40.25905498446061</v>
       </c>
       <c r="H24">
-        <v>10.96901151214646</v>
+        <v>17.03832300895935</v>
       </c>
       <c r="I24">
-        <v>16.32264633616995</v>
+        <v>24.59198301338209</v>
       </c>
       <c r="J24">
-        <v>7.110148647930171</v>
+        <v>11.20596040936494</v>
       </c>
       <c r="K24">
-        <v>13.76029560871195</v>
+        <v>11.39539701009235</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.42800979145793</v>
+        <v>17.04087837429245</v>
       </c>
       <c r="N24">
-        <v>12.54019490299927</v>
+        <v>20.26227407735676</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.77707299314015</v>
+        <v>10.6994233838182</v>
       </c>
       <c r="C25">
-        <v>8.612573108106636</v>
+        <v>6.239386108474565</v>
       </c>
       <c r="D25">
-        <v>7.368431377263152</v>
+        <v>9.520998669071187</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>27.1668107238496</v>
+        <v>36.77937778908152</v>
       </c>
       <c r="G25">
-        <v>32.08326151355609</v>
+        <v>40.19947345237782</v>
       </c>
       <c r="H25">
-        <v>10.91830869104249</v>
+        <v>17.09975882681433</v>
       </c>
       <c r="I25">
-        <v>16.29178455549472</v>
+        <v>24.69711848549695</v>
       </c>
       <c r="J25">
-        <v>6.978725835276567</v>
+        <v>11.2268351344234</v>
       </c>
       <c r="K25">
-        <v>12.49418376685181</v>
+        <v>11.09795956841579</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.43520200240631</v>
+        <v>16.8942396147789</v>
       </c>
       <c r="N25">
-        <v>12.94385114873047</v>
+        <v>20.37215081225482</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_7/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.36309431898779</v>
+        <v>12.61474634153559</v>
       </c>
       <c r="C2">
-        <v>6.008478398229731</v>
+        <v>7.869697401252658</v>
       </c>
       <c r="D2">
-        <v>9.468811434381657</v>
+        <v>6.957224881959721</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.79618150162513</v>
+        <v>26.46024269505092</v>
       </c>
       <c r="G2">
-        <v>40.19051235771648</v>
+        <v>31.1427745683138</v>
       </c>
       <c r="H2">
-        <v>17.15375422720692</v>
+        <v>10.90655760315048</v>
       </c>
       <c r="I2">
-        <v>24.78883611322316</v>
+        <v>16.31379656860063</v>
       </c>
       <c r="J2">
-        <v>11.24723541890542</v>
+        <v>6.893398714533506</v>
       </c>
       <c r="K2">
-        <v>10.88095218673438</v>
+        <v>11.48177867023831</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.79539424430797</v>
+        <v>12.67853757230683</v>
       </c>
       <c r="N2">
-        <v>20.45882285062337</v>
+        <v>13.24943151898467</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.1333009912424</v>
+        <v>11.76648125611892</v>
       </c>
       <c r="C3">
-        <v>5.849672283108495</v>
+        <v>7.328832140496851</v>
       </c>
       <c r="D3">
-        <v>9.436519386766914</v>
+        <v>6.670626591859705</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>36.8240459191758</v>
+        <v>26.01682841864114</v>
       </c>
       <c r="G3">
-        <v>40.20620052446105</v>
+        <v>30.55548034710538</v>
       </c>
       <c r="H3">
-        <v>17.19580478590421</v>
+        <v>10.91331825192444</v>
       </c>
       <c r="I3">
-        <v>24.85989192301721</v>
+        <v>16.35415873950959</v>
       </c>
       <c r="J3">
-        <v>11.26420184048702</v>
+        <v>6.842493306555205</v>
       </c>
       <c r="K3">
-        <v>10.73596941530452</v>
+        <v>10.74500981815744</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.73433211890373</v>
+        <v>12.15241457194016</v>
       </c>
       <c r="N3">
-        <v>20.52118954243674</v>
+        <v>13.46224136753</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.991849509082098</v>
+        <v>11.21544763285304</v>
       </c>
       <c r="C4">
-        <v>5.751430126401396</v>
+        <v>6.978014736814233</v>
       </c>
       <c r="D4">
-        <v>9.418246110746011</v>
+        <v>6.49136323422008</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.84927329810952</v>
+        <v>25.76207203518355</v>
       </c>
       <c r="G4">
-        <v>40.22654818640714</v>
+        <v>30.21954422507696</v>
       </c>
       <c r="H4">
-        <v>17.22431316792005</v>
+        <v>10.92432822085198</v>
       </c>
       <c r="I4">
-        <v>24.90790012352476</v>
+        <v>16.3906925354361</v>
       </c>
       <c r="J4">
-        <v>11.27616933791612</v>
+        <v>6.814573030396684</v>
       </c>
       <c r="K4">
-        <v>10.64826219304587</v>
+        <v>10.26749157023846</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.69983547633253</v>
+        <v>11.82392170221505</v>
       </c>
       <c r="N4">
-        <v>20.56128191324386</v>
+        <v>13.59588073387882</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.934205135428362</v>
+        <v>10.98325808767179</v>
       </c>
       <c r="C5">
-        <v>5.711276370208073</v>
+        <v>6.8303071846373</v>
       </c>
       <c r="D5">
-        <v>9.411195820166467</v>
+        <v>6.417590993940957</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.8615934638434</v>
+        <v>25.66265252704672</v>
       </c>
       <c r="G5">
-        <v>40.23753067495275</v>
+        <v>30.08882808980151</v>
       </c>
       <c r="H5">
-        <v>17.23660635902714</v>
+        <v>10.93048039193033</v>
       </c>
       <c r="I5">
-        <v>24.92856372933726</v>
+        <v>16.40841889802696</v>
       </c>
       <c r="J5">
-        <v>11.28143607634191</v>
+        <v>6.804021855109221</v>
       </c>
       <c r="K5">
-        <v>10.61289392274797</v>
+        <v>10.06656322744631</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.6865416526066</v>
+        <v>11.68888194916638</v>
       </c>
       <c r="N5">
-        <v>20.57807350223735</v>
+        <v>13.65110896346636</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.924635849884716</v>
+        <v>10.94424051413626</v>
       </c>
       <c r="C6">
-        <v>5.704603635443942</v>
+        <v>6.805492671457279</v>
       </c>
       <c r="D6">
-        <v>9.410049205520989</v>
+        <v>6.405300982800317</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.86376235199712</v>
+        <v>25.64640907791819</v>
       </c>
       <c r="G6">
-        <v>40.23951667699048</v>
+        <v>30.06749500276047</v>
       </c>
       <c r="H6">
-        <v>17.23868843744754</v>
+        <v>10.93160083109836</v>
       </c>
       <c r="I6">
-        <v>24.93206129248586</v>
+        <v>16.41153043093813</v>
       </c>
       <c r="J6">
-        <v>11.28233416493823</v>
+        <v>6.802319383459612</v>
       </c>
       <c r="K6">
-        <v>10.60704483095217</v>
+        <v>10.03281629859354</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.68438064868356</v>
+        <v>11.66639379273562</v>
       </c>
       <c r="N6">
-        <v>20.58088916746848</v>
+        <v>13.66032663394149</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.991071985678472</v>
+        <v>11.21234723261254</v>
       </c>
       <c r="C7">
-        <v>5.750888993119414</v>
+        <v>6.976041970121</v>
       </c>
       <c r="D7">
-        <v>9.418149416940174</v>
+        <v>6.490371085193543</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>36.8494311959436</v>
+        <v>25.76071344697863</v>
       </c>
       <c r="G7">
-        <v>40.22668541192056</v>
+        <v>30.21775636126521</v>
       </c>
       <c r="H7">
-        <v>17.22447622252558</v>
+        <v>10.92440452524789</v>
       </c>
       <c r="I7">
-        <v>24.90817434873058</v>
+        <v>16.39092025822625</v>
       </c>
       <c r="J7">
-        <v>11.27623878823868</v>
+        <v>6.81442740380495</v>
       </c>
       <c r="K7">
-        <v>10.64778363695697</v>
+        <v>10.26480744712089</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.69965308513421</v>
+        <v>11.82210499750586</v>
       </c>
       <c r="N7">
-        <v>20.56150653212963</v>
+        <v>13.59662241917613</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.28398782191298</v>
+        <v>12.32850327846711</v>
       </c>
       <c r="C8">
-        <v>5.95391280850754</v>
+        <v>7.687069810428913</v>
       </c>
       <c r="D8">
-        <v>9.457357930783443</v>
+        <v>6.85914885076757</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>36.80410339760385</v>
+        <v>26.30372159417382</v>
       </c>
       <c r="G8">
-        <v>40.19369594606872</v>
+        <v>30.93514963791417</v>
       </c>
       <c r="H8">
-        <v>17.16769488019919</v>
+        <v>10.90742927402117</v>
       </c>
       <c r="I8">
-        <v>24.81242632035666</v>
+        <v>16.32520372137411</v>
       </c>
       <c r="J8">
-        <v>11.25276380871212</v>
+        <v>6.875147104335586</v>
       </c>
       <c r="K8">
-        <v>10.83071562063993</v>
+        <v>11.23294739909591</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.7737248202589</v>
+        <v>12.49837129358701</v>
       </c>
       <c r="N8">
-        <v>20.47995426987181</v>
+        <v>13.32220443329098</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.85183346552037</v>
+        <v>14.27987193318915</v>
       </c>
       <c r="C9">
-        <v>6.343503305270081</v>
+        <v>8.93461091685016</v>
       </c>
       <c r="D9">
-        <v>9.546322739937999</v>
+        <v>7.552171141778473</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>36.77967465069341</v>
+        <v>27.5071373943416</v>
       </c>
       <c r="G9">
-        <v>40.21412277215409</v>
+        <v>32.5377194925716</v>
       </c>
       <c r="H9">
-        <v>17.0777023122008</v>
+        <v>10.93124903524777</v>
       </c>
       <c r="I9">
-        <v>24.6594775848618</v>
+        <v>16.29489979436967</v>
       </c>
       <c r="J9">
-        <v>11.21902253958107</v>
+        <v>7.021192082325696</v>
       </c>
       <c r="K9">
-        <v>11.1979525886179</v>
+        <v>12.93303242516303</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.94225051864003</v>
+        <v>13.77392282313886</v>
       </c>
       <c r="N9">
-        <v>20.33424610782242</v>
+        <v>12.80664658808282</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.26029329683221</v>
+        <v>15.5719697315895</v>
       </c>
       <c r="C10">
-        <v>6.621158859460929</v>
+        <v>9.76426105998903</v>
       </c>
       <c r="D10">
-        <v>9.618682858654092</v>
+        <v>8.038425200983964</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>36.80103281621984</v>
+        <v>28.47488477456683</v>
       </c>
       <c r="G10">
-        <v>40.2810586296176</v>
+        <v>33.83366991696685</v>
       </c>
       <c r="H10">
-        <v>17.02462742064742</v>
+        <v>10.98729571574966</v>
       </c>
       <c r="I10">
-        <v>24.56841223356635</v>
+        <v>16.34017484295097</v>
       </c>
       <c r="J10">
-        <v>11.2017179432068</v>
+        <v>7.145579520896181</v>
       </c>
       <c r="K10">
-        <v>11.47039073079593</v>
+        <v>14.06300398774178</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.07953522459797</v>
+        <v>14.67202473739701</v>
       </c>
       <c r="N10">
-        <v>20.23577716226083</v>
+        <v>12.44014613865579</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.44329656072012</v>
+        <v>16.1297599173662</v>
       </c>
       <c r="C11">
-        <v>6.744975426653982</v>
+        <v>10.12340260435283</v>
       </c>
       <c r="D11">
-        <v>9.653035754799468</v>
+        <v>8.253938294729988</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>36.81926750923235</v>
+        <v>28.93300908822815</v>
       </c>
       <c r="G11">
-        <v>40.32275742305897</v>
+        <v>34.4486330331664</v>
       </c>
       <c r="H11">
-        <v>17.00331879527393</v>
+        <v>11.02197759735942</v>
       </c>
       <c r="I11">
-        <v>24.53162745002153</v>
+        <v>16.37707691045282</v>
       </c>
       <c r="J11">
-        <v>11.1954681491036</v>
+        <v>7.206002809524047</v>
       </c>
       <c r="K11">
-        <v>11.5943658374798</v>
+        <v>14.55171456833378</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.1447461735666</v>
+        <v>15.0708286038399</v>
       </c>
       <c r="N11">
-        <v>20.19282700120401</v>
+        <v>12.2757413730241</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.51212124973784</v>
+        <v>16.33672909232758</v>
       </c>
       <c r="C12">
-        <v>6.791456213662187</v>
+        <v>10.25682304192032</v>
       </c>
       <c r="D12">
-        <v>9.666243078509524</v>
+        <v>8.334683733280905</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>36.82739435718872</v>
+        <v>29.10903515731751</v>
       </c>
       <c r="G12">
-        <v>40.34015986688264</v>
+        <v>34.68512681715827</v>
       </c>
       <c r="H12">
-        <v>16.99565780565137</v>
+        <v>11.0364994379243</v>
       </c>
       <c r="I12">
-        <v>24.51836672323146</v>
+        <v>16.39353264592257</v>
       </c>
       <c r="J12">
-        <v>11.19333444373267</v>
+        <v>7.229445059839358</v>
       </c>
       <c r="K12">
-        <v>11.64127438001527</v>
+        <v>14.73318293705717</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.16982143577661</v>
+        <v>15.22036309267515</v>
       </c>
       <c r="N12">
-        <v>20.17682673570284</v>
+        <v>12.21378994839857</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.49732081112666</v>
+        <v>16.29234280244768</v>
       </c>
       <c r="C13">
-        <v>6.781464511767808</v>
+        <v>10.2282024501237</v>
       </c>
       <c r="D13">
-        <v>9.663389939196456</v>
+        <v>8.317332860337427</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>36.82558981851449</v>
+        <v>29.07101204645692</v>
       </c>
       <c r="G13">
-        <v>40.33634035331994</v>
+        <v>34.63403314132372</v>
       </c>
       <c r="H13">
-        <v>16.99728957959326</v>
+        <v>11.03330905749498</v>
       </c>
       <c r="I13">
-        <v>24.52119288729061</v>
+        <v>16.38987603678936</v>
       </c>
       <c r="J13">
-        <v>11.19378362005131</v>
+        <v>7.224371242245869</v>
       </c>
       <c r="K13">
-        <v>11.63117417224584</v>
+        <v>14.6942596318442</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.16440432463455</v>
+        <v>15.18822527089053</v>
       </c>
       <c r="N13">
-        <v>20.18026095406297</v>
+        <v>12.22711918996735</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.44896871174677</v>
+        <v>16.14687230283231</v>
       </c>
       <c r="C14">
-        <v>6.748807821869129</v>
+        <v>10.1344305772841</v>
       </c>
       <c r="D14">
-        <v>9.654118394508531</v>
+        <v>8.260598834714553</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>36.81991164586554</v>
+        <v>28.94744001652488</v>
       </c>
       <c r="G14">
-        <v>40.32415686407864</v>
+        <v>34.46801714578421</v>
       </c>
       <c r="H14">
-        <v>17.00268033952754</v>
+        <v>11.02314409878495</v>
       </c>
       <c r="I14">
-        <v>24.53052306875794</v>
+        <v>16.37838020645879</v>
       </c>
       <c r="J14">
-        <v>11.19528794104611</v>
+        <v>7.207920116103801</v>
       </c>
       <c r="K14">
-        <v>11.59822604441166</v>
+        <v>14.56671586963103</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.14680157978933</v>
+        <v>15.08316103963724</v>
       </c>
       <c r="N14">
-        <v>20.19150536455897</v>
+        <v>12.2706386436905</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.41928781449196</v>
+        <v>16.05721523630563</v>
       </c>
       <c r="C15">
-        <v>6.728750454664759</v>
+        <v>10.07665826277839</v>
       </c>
       <c r="D15">
-        <v>9.648464934710708</v>
+        <v>8.225733769863496</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>36.81659259864303</v>
+        <v>28.87207914364429</v>
       </c>
       <c r="G15">
-        <v>40.31690385914939</v>
+        <v>34.36679807472328</v>
       </c>
       <c r="H15">
-        <v>17.00603549642639</v>
+        <v>11.01710062106265</v>
       </c>
       <c r="I15">
-        <v>24.53632522326827</v>
+        <v>16.37166596254577</v>
       </c>
       <c r="J15">
-        <v>11.19623970879495</v>
+        <v>7.197916693282052</v>
       </c>
       <c r="K15">
-        <v>11.57803810833974</v>
+        <v>14.4881247783187</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.13606857514743</v>
+        <v>15.01861080016061</v>
       </c>
       <c r="N15">
-        <v>20.19842724203881</v>
+        <v>12.29733443855669</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.2482709338505</v>
+        <v>15.53491829766362</v>
       </c>
       <c r="C16">
-        <v>6.613012867223736</v>
+        <v>9.740426766263379</v>
       </c>
       <c r="D16">
-        <v>9.616466045666289</v>
+        <v>8.02422224567295</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>36.80001230245721</v>
+        <v>28.44530279368121</v>
       </c>
       <c r="G16">
-        <v>40.27855944152747</v>
+        <v>33.79398915184773</v>
       </c>
       <c r="H16">
-        <v>17.02607708002463</v>
+        <v>10.98521978207812</v>
       </c>
       <c r="I16">
-        <v>24.57090972692623</v>
+        <v>16.33810299559251</v>
       </c>
       <c r="J16">
-        <v>11.20215899874625</v>
+        <v>7.141708755344017</v>
       </c>
       <c r="K16">
-        <v>11.46228570549518</v>
+        <v>14.03055987387132</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.0753277503599</v>
+        <v>14.64575836399719</v>
       </c>
       <c r="N16">
-        <v>20.23862106371916</v>
+        <v>12.45093463594291</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.14258655902845</v>
+        <v>15.20686555311907</v>
       </c>
       <c r="C17">
-        <v>6.541338480311881</v>
+        <v>9.529513954541295</v>
       </c>
       <c r="D17">
-        <v>9.597198042237071</v>
+        <v>7.899108435928857</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>36.79202070671429</v>
+        <v>28.18805065029678</v>
       </c>
       <c r="G17">
-        <v>40.25791418413615</v>
+        <v>33.44907563506531</v>
       </c>
       <c r="H17">
-        <v>17.03909845523774</v>
+        <v>10.96806254370976</v>
       </c>
       <c r="I17">
-        <v>24.59331600970674</v>
+        <v>16.32178651335848</v>
       </c>
       <c r="J17">
-        <v>11.2062055618733</v>
+        <v>7.108216826354321</v>
       </c>
       <c r="K17">
-        <v>11.39125426629552</v>
+        <v>13.74340449851962</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.03876113681252</v>
+        <v>14.41446439254497</v>
       </c>
       <c r="N17">
-        <v>20.26375012933637</v>
+        <v>12.54573739007785</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.08153941709587</v>
+        <v>15.01535166252351</v>
       </c>
       <c r="C18">
-        <v>6.499881456899582</v>
+        <v>9.406479734437028</v>
       </c>
       <c r="D18">
-        <v>9.586251241247446</v>
+        <v>7.826613213804325</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>36.78822623298178</v>
+        <v>28.04177166204269</v>
       </c>
       <c r="G18">
-        <v>40.24709887106479</v>
+        <v>33.2530860864677</v>
       </c>
       <c r="H18">
-        <v>17.0468548671337</v>
+        <v>10.9590546901365</v>
       </c>
       <c r="I18">
-        <v>24.60664028942232</v>
+        <v>16.31392822898264</v>
       </c>
       <c r="J18">
-        <v>11.20868574448965</v>
+        <v>7.089313944639704</v>
       </c>
       <c r="K18">
-        <v>11.35040535441375</v>
+        <v>13.57585417987595</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.01798968851728</v>
+        <v>14.2805164315719</v>
       </c>
       <c r="N18">
-        <v>20.27837732158396</v>
+        <v>12.60048538365104</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.06082744353631</v>
+        <v>14.950021122297</v>
       </c>
       <c r="C19">
-        <v>6.485806530047481</v>
+        <v>9.36452513608741</v>
       </c>
       <c r="D19">
-        <v>9.582568374130579</v>
+        <v>7.801977617516069</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>36.78707932956557</v>
+        <v>27.99253453121657</v>
       </c>
       <c r="G19">
-        <v>40.24361906809989</v>
+        <v>33.18713999439203</v>
       </c>
       <c r="H19">
-        <v>17.04952687580256</v>
+        <v>10.95615053542786</v>
       </c>
       <c r="I19">
-        <v>24.61122663309418</v>
+        <v>16.31152558577234</v>
       </c>
       <c r="J19">
-        <v>11.20955172770534</v>
+        <v>7.082975436726105</v>
       </c>
       <c r="K19">
-        <v>11.3365770930451</v>
+        <v>13.51871339569394</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.01100207144879</v>
+        <v>14.23500982804353</v>
       </c>
       <c r="N19">
-        <v>20.28335969089261</v>
+        <v>12.61906073246</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.1538643095915</v>
+        <v>15.24207945487991</v>
       </c>
       <c r="C20">
-        <v>6.54899269182765</v>
+        <v>9.552143937026953</v>
       </c>
       <c r="D20">
-        <v>9.599235171318506</v>
+        <v>7.912482556929752</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>36.79278843354457</v>
+        <v>28.21526133844221</v>
       </c>
       <c r="G20">
-        <v>40.26000230910795</v>
+        <v>33.4855446084072</v>
       </c>
       <c r="H20">
-        <v>17.0376846854418</v>
+        <v>10.96979941137921</v>
       </c>
       <c r="I20">
-        <v>24.59088560689382</v>
+        <v>16.323364454623</v>
       </c>
       <c r="J20">
-        <v>11.20575899582556</v>
+        <v>7.111744691862258</v>
       </c>
       <c r="K20">
-        <v>11.39881533553504</v>
+        <v>13.77421932197775</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.04262684418948</v>
+        <v>14.43918125994418</v>
       </c>
       <c r="N20">
-        <v>20.26105713666153</v>
+        <v>12.53562291116576</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.46318431946603</v>
+        <v>16.18971548075597</v>
       </c>
       <c r="C21">
-        <v>6.758411258333963</v>
+        <v>10.16204323417977</v>
       </c>
       <c r="D21">
-        <v>9.656836345283494</v>
+        <v>8.277286786858653</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>36.82154633501359</v>
+        <v>28.98366727318481</v>
       </c>
       <c r="G21">
-        <v>40.32769175440596</v>
+        <v>34.51668206869974</v>
       </c>
       <c r="H21">
-        <v>17.00108586336051</v>
+        <v>11.0260915653595</v>
       </c>
       <c r="I21">
-        <v>24.52776440403087</v>
+        <v>16.38168835830349</v>
       </c>
       <c r="J21">
-        <v>11.19483976586369</v>
+        <v>7.212736904495151</v>
       </c>
       <c r="K21">
-        <v>11.60790508910832</v>
+        <v>14.60427576951727</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.15196171106832</v>
+        <v>15.11406178543765</v>
       </c>
       <c r="N21">
-        <v>20.18819545180543</v>
+        <v>12.25784787629095</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.66254660053295</v>
+        <v>16.78428492856062</v>
       </c>
       <c r="C22">
-        <v>6.892893476721837</v>
+        <v>10.54564159345857</v>
       </c>
       <c r="D22">
-        <v>9.695635951946187</v>
+        <v>8.510652321097504</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>36.84746047859357</v>
+        <v>29.50068537803977</v>
       </c>
       <c r="G22">
-        <v>40.38132288883387</v>
+        <v>35.21168152222115</v>
       </c>
       <c r="H22">
-        <v>16.97954542847979</v>
+        <v>11.07100732603946</v>
       </c>
       <c r="I22">
-        <v>24.49041037275475</v>
+        <v>16.43433639663673</v>
       </c>
       <c r="J22">
-        <v>11.18906108296702</v>
+        <v>7.282016970257435</v>
       </c>
       <c r="K22">
-        <v>11.7443154354895</v>
+        <v>15.12583108385894</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.22563322532379</v>
+        <v>15.55803525889655</v>
       </c>
       <c r="N22">
-        <v>20.1421145790063</v>
+        <v>12.07807016221649</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.55642123950658</v>
+        <v>16.46919790016366</v>
       </c>
       <c r="C23">
-        <v>6.821350720701449</v>
+        <v>10.34226427301922</v>
       </c>
       <c r="D23">
-        <v>9.674824957884683</v>
+        <v>8.386576314834921</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>36.83297952525656</v>
+        <v>29.22339531257145</v>
       </c>
       <c r="G23">
-        <v>40.35184188720486</v>
+        <v>34.83882773980834</v>
       </c>
       <c r="H23">
-        <v>16.99082416577406</v>
+        <v>11.04626889096269</v>
       </c>
       <c r="I23">
-        <v>24.50998967134343</v>
+        <v>16.40486201586723</v>
       </c>
       <c r="J23">
-        <v>11.19202116390429</v>
+        <v>7.244738090452247</v>
       </c>
       <c r="K23">
-        <v>11.67154706119211</v>
+        <v>14.84936665535994</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.18611596616184</v>
+        <v>15.31649742624658</v>
       </c>
       <c r="N23">
-        <v>20.16656840527764</v>
+        <v>12.17386912710136</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.14876652949144</v>
+        <v>15.22616832454083</v>
       </c>
       <c r="C24">
-        <v>6.545532999263179</v>
+        <v>9.541918462528244</v>
       </c>
       <c r="D24">
-        <v>9.598313777775406</v>
+        <v>7.906437874948982</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>36.792438852024</v>
+        <v>28.2029543422274</v>
       </c>
       <c r="G24">
-        <v>40.25905498446061</v>
+        <v>33.46904980058225</v>
       </c>
       <c r="H24">
-        <v>17.03832300895935</v>
+        <v>10.96901151214649</v>
       </c>
       <c r="I24">
-        <v>24.59198301338209</v>
+        <v>16.32264633617009</v>
       </c>
       <c r="J24">
-        <v>11.20596040936494</v>
+        <v>7.110148647930122</v>
       </c>
       <c r="K24">
-        <v>11.39539701009235</v>
+        <v>13.76029560871192</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.04087837429245</v>
+        <v>14.42800979145793</v>
       </c>
       <c r="N24">
-        <v>20.26227407735676</v>
+        <v>12.54019490299936</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.6994233838182</v>
+        <v>13.77707299314016</v>
       </c>
       <c r="C25">
-        <v>6.239386108474565</v>
+        <v>8.612573108106487</v>
       </c>
       <c r="D25">
-        <v>9.520998669071187</v>
+        <v>7.368431377263097</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>36.77937778908152</v>
+        <v>27.16681072384961</v>
       </c>
       <c r="G25">
-        <v>40.19947345237782</v>
+        <v>32.08326151355623</v>
       </c>
       <c r="H25">
-        <v>17.09975882681433</v>
+        <v>10.91830869104249</v>
       </c>
       <c r="I25">
-        <v>24.69711848549695</v>
+        <v>16.29178455549474</v>
       </c>
       <c r="J25">
-        <v>11.2268351344234</v>
+        <v>6.978725835276592</v>
       </c>
       <c r="K25">
-        <v>11.09795956841579</v>
+        <v>12.49418376685178</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.8942396147789</v>
+        <v>13.43520200240631</v>
       </c>
       <c r="N25">
-        <v>20.37215081225482</v>
+        <v>12.94385114873047</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_7/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.61474634153559</v>
+        <v>24.3198244938717</v>
       </c>
       <c r="C2">
-        <v>7.869697401252658</v>
+        <v>19.92594805995155</v>
       </c>
       <c r="D2">
-        <v>6.957224881959721</v>
+        <v>9.354665912739412</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>26.46024269505092</v>
+        <v>28.17812535241687</v>
       </c>
       <c r="G2">
-        <v>31.1427745683138</v>
+        <v>32.00001100594942</v>
       </c>
       <c r="H2">
-        <v>10.90655760315048</v>
+        <v>1.850882370739265</v>
       </c>
       <c r="I2">
-        <v>16.31379656860063</v>
+        <v>2.77322340408848</v>
       </c>
       <c r="J2">
-        <v>6.893398714533506</v>
+        <v>10.60496633694934</v>
       </c>
       <c r="K2">
-        <v>11.48177867023831</v>
+        <v>14.25287775458085</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>9.487458098544385</v>
       </c>
       <c r="M2">
-        <v>12.67853757230683</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>13.24943151898467</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.76648125611892</v>
+        <v>22.7055870629609</v>
       </c>
       <c r="C3">
-        <v>7.328832140496851</v>
+        <v>18.61090311934585</v>
       </c>
       <c r="D3">
-        <v>6.670626591859705</v>
+        <v>8.858034749070674</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.01682841864114</v>
+        <v>27.21656456936723</v>
       </c>
       <c r="G3">
-        <v>30.55548034710538</v>
+        <v>30.80598228312593</v>
       </c>
       <c r="H3">
-        <v>10.91331825192444</v>
+        <v>1.564788124491925</v>
       </c>
       <c r="I3">
-        <v>16.35415873950959</v>
+        <v>2.559047919363895</v>
       </c>
       <c r="J3">
-        <v>6.842493306555205</v>
+        <v>10.49893516042273</v>
       </c>
       <c r="K3">
-        <v>10.74500981815744</v>
+        <v>14.35941808367057</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>9.076612974205034</v>
       </c>
       <c r="M3">
-        <v>12.15241457194016</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>13.46224136753</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.21544763285304</v>
+        <v>21.65464224244831</v>
       </c>
       <c r="C4">
-        <v>6.978014736814233</v>
+        <v>17.76151699475226</v>
       </c>
       <c r="D4">
-        <v>6.49136323422008</v>
+        <v>8.540661385739256</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.76207203518355</v>
+        <v>26.61871277579857</v>
       </c>
       <c r="G4">
-        <v>30.21954422507696</v>
+        <v>30.06698031436053</v>
       </c>
       <c r="H4">
-        <v>10.92432822085198</v>
+        <v>1.742315374356472</v>
       </c>
       <c r="I4">
-        <v>16.3906925354361</v>
+        <v>2.521081782043886</v>
       </c>
       <c r="J4">
-        <v>6.814573030396684</v>
+        <v>10.43777263327796</v>
       </c>
       <c r="K4">
-        <v>10.26749157023846</v>
+        <v>14.43157967250953</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>8.814551371591129</v>
       </c>
       <c r="M4">
-        <v>11.82392170221505</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>13.59588073387882</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.98325808767179</v>
+        <v>21.21108600060113</v>
       </c>
       <c r="C5">
-        <v>6.8303071846373</v>
+        <v>17.41736900793596</v>
       </c>
       <c r="D5">
-        <v>6.417590993940957</v>
+        <v>8.412605359327822</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.66265252704672</v>
+        <v>26.35673957890528</v>
       </c>
       <c r="G5">
-        <v>30.08882808980151</v>
+        <v>29.73418246562628</v>
       </c>
       <c r="H5">
-        <v>10.93048039193033</v>
+        <v>1.819955321109024</v>
       </c>
       <c r="I5">
-        <v>16.40841889802696</v>
+        <v>2.582870952699339</v>
       </c>
       <c r="J5">
-        <v>6.804021855109221</v>
+        <v>10.40812357358524</v>
       </c>
       <c r="K5">
-        <v>10.06656322744631</v>
+        <v>14.45176234622248</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>8.705179627096738</v>
       </c>
       <c r="M5">
-        <v>11.68888194916638</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>13.65110896346636</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.94424051413626</v>
+        <v>21.13630413848963</v>
       </c>
       <c r="C6">
-        <v>6.805492671457279</v>
+        <v>17.37495485858654</v>
       </c>
       <c r="D6">
-        <v>6.405300982800317</v>
+        <v>8.396464407622107</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>25.64640907791819</v>
+        <v>26.29267145002883</v>
       </c>
       <c r="G6">
-        <v>30.06749500276047</v>
+        <v>29.64152707151721</v>
       </c>
       <c r="H6">
-        <v>10.93160083109836</v>
+        <v>1.833248102471329</v>
       </c>
       <c r="I6">
-        <v>16.41153043093813</v>
+        <v>2.597325563823794</v>
       </c>
       <c r="J6">
-        <v>6.802319383459612</v>
+        <v>10.39630383647976</v>
       </c>
       <c r="K6">
-        <v>10.03281629859354</v>
+        <v>14.44201453024768</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>8.686663066643394</v>
       </c>
       <c r="M6">
-        <v>11.66639379273562</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>13.66032663394149</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.21234723261254</v>
+        <v>21.64814511361456</v>
       </c>
       <c r="C7">
-        <v>6.976041970121</v>
+        <v>17.79787602100199</v>
       </c>
       <c r="D7">
-        <v>6.490371085193543</v>
+        <v>8.553153973804342</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.76071344697863</v>
+        <v>26.55991464686543</v>
       </c>
       <c r="G7">
-        <v>30.21775636126521</v>
+        <v>29.96179920459815</v>
       </c>
       <c r="H7">
-        <v>10.92440452524789</v>
+        <v>1.744177406717946</v>
       </c>
       <c r="I7">
-        <v>16.39092025822625</v>
+        <v>2.532896016015416</v>
       </c>
       <c r="J7">
-        <v>6.81442740380495</v>
+        <v>10.41845162602612</v>
       </c>
       <c r="K7">
-        <v>10.26480744712089</v>
+        <v>14.39576184470376</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>8.812520336286306</v>
       </c>
       <c r="M7">
-        <v>11.82210499750586</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>13.59662241917613</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.32850327846711</v>
+        <v>23.77487995150522</v>
       </c>
       <c r="C8">
-        <v>7.687069810428913</v>
+        <v>19.53114352335395</v>
       </c>
       <c r="D8">
-        <v>6.85914885076757</v>
+        <v>9.203642350690776</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>26.30372159417382</v>
+        <v>27.77823764952491</v>
       </c>
       <c r="G8">
-        <v>30.93514963791417</v>
+        <v>31.4625393284321</v>
       </c>
       <c r="H8">
-        <v>10.90742927402117</v>
+        <v>1.752443536819445</v>
       </c>
       <c r="I8">
-        <v>16.32520372137411</v>
+        <v>2.702624256558651</v>
       </c>
       <c r="J8">
-        <v>6.875147104335586</v>
+        <v>10.54293249853239</v>
       </c>
       <c r="K8">
-        <v>11.23294739909591</v>
+        <v>14.24026402715146</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>9.347175047588935</v>
       </c>
       <c r="M8">
-        <v>12.49837129358701</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>13.32220443329098</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.27987193318915</v>
+        <v>27.47545151973592</v>
       </c>
       <c r="C9">
-        <v>8.93461091685016</v>
+        <v>22.53444392050763</v>
       </c>
       <c r="D9">
-        <v>7.552171141778473</v>
+        <v>10.35522037445821</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>27.5071373943416</v>
+        <v>30.19089389271461</v>
       </c>
       <c r="G9">
-        <v>32.5377194925716</v>
+        <v>34.51445060182674</v>
       </c>
       <c r="H9">
-        <v>10.93124903524777</v>
+        <v>2.435935754680106</v>
       </c>
       <c r="I9">
-        <v>16.29489979436967</v>
+        <v>3.218293591118375</v>
       </c>
       <c r="J9">
-        <v>7.021192082325696</v>
+        <v>10.85273995624973</v>
       </c>
       <c r="K9">
-        <v>12.93303242516303</v>
+        <v>14.05935189760684</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.31674668831404</v>
       </c>
       <c r="M9">
-        <v>13.77392282313886</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>12.80664658808282</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.5719697315895</v>
+        <v>29.90855429315614</v>
       </c>
       <c r="C10">
-        <v>9.76426105998903</v>
+        <v>24.51300744907662</v>
       </c>
       <c r="D10">
-        <v>8.038425200983964</v>
+        <v>11.0212972190077</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>28.47488477456683</v>
+        <v>31.57008232552718</v>
       </c>
       <c r="G10">
-        <v>33.83366991696685</v>
+        <v>36.28401882498481</v>
       </c>
       <c r="H10">
-        <v>10.98729571574966</v>
+        <v>2.890404732430924</v>
       </c>
       <c r="I10">
-        <v>16.34017484295097</v>
+        <v>3.578370695450363</v>
       </c>
       <c r="J10">
-        <v>7.145579520896181</v>
+        <v>11.01605813055369</v>
       </c>
       <c r="K10">
-        <v>14.06300398774178</v>
+        <v>13.83437061511037</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.79907788471704</v>
       </c>
       <c r="M10">
-        <v>14.67202473739701</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>12.44014613865579</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.1297599173662</v>
+        <v>30.92551086947309</v>
       </c>
       <c r="C11">
-        <v>10.12340260435283</v>
+        <v>25.02694644909735</v>
       </c>
       <c r="D11">
-        <v>8.253938294729988</v>
+        <v>10.28731574717342</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>28.93300908822815</v>
+        <v>29.40151692660568</v>
       </c>
       <c r="G11">
-        <v>34.4486330331664</v>
+        <v>33.69725060512669</v>
       </c>
       <c r="H11">
-        <v>11.02197759735942</v>
+        <v>3.544080294368799</v>
       </c>
       <c r="I11">
-        <v>16.37707691045282</v>
+        <v>3.683274504794857</v>
       </c>
       <c r="J11">
-        <v>7.206002809524047</v>
+        <v>10.4037134908826</v>
       </c>
       <c r="K11">
-        <v>14.55171456833378</v>
+        <v>12.68206749900259</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.524342343108119</v>
       </c>
       <c r="M11">
-        <v>15.0708286038399</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>12.2757413730241</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.33672909232758</v>
+        <v>31.29140472465317</v>
       </c>
       <c r="C12">
-        <v>10.25682304192032</v>
+        <v>25.00790548950012</v>
       </c>
       <c r="D12">
-        <v>8.334683733280905</v>
+        <v>9.514510013934945</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>29.10903515731751</v>
+        <v>27.32915660722096</v>
       </c>
       <c r="G12">
-        <v>34.68512681715827</v>
+        <v>31.23457836320481</v>
       </c>
       <c r="H12">
-        <v>11.0364994379243</v>
+        <v>4.605719599680926</v>
       </c>
       <c r="I12">
-        <v>16.39353264592257</v>
+        <v>3.698331318132976</v>
       </c>
       <c r="J12">
-        <v>7.229445059839358</v>
+        <v>9.875591234137239</v>
       </c>
       <c r="K12">
-        <v>14.73318293705717</v>
+        <v>11.842797294319</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.437592608107662</v>
       </c>
       <c r="M12">
-        <v>15.22036309267515</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>12.21378994839857</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.29234280244768</v>
+        <v>31.19069171328421</v>
       </c>
       <c r="C13">
-        <v>10.2282024501237</v>
+        <v>24.62537609895638</v>
       </c>
       <c r="D13">
-        <v>8.317332860337427</v>
+        <v>8.663947664810594</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>29.07101204645692</v>
+        <v>25.09250054832687</v>
       </c>
       <c r="G13">
-        <v>34.63403314132372</v>
+        <v>28.52123394231891</v>
       </c>
       <c r="H13">
-        <v>11.03330905749498</v>
+        <v>5.79825338271008</v>
       </c>
       <c r="I13">
-        <v>16.38987603678936</v>
+        <v>3.64801557126056</v>
       </c>
       <c r="J13">
-        <v>7.224371242245869</v>
+        <v>9.350201832613827</v>
       </c>
       <c r="K13">
-        <v>14.6942596318442</v>
+        <v>11.15399585342806</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.449513635698857</v>
       </c>
       <c r="M13">
-        <v>15.18822527089053</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>12.22711918996735</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.14687230283231</v>
+        <v>30.90812216211334</v>
       </c>
       <c r="C14">
-        <v>10.1344305772841</v>
+        <v>24.19763903210919</v>
       </c>
       <c r="D14">
-        <v>8.260598834714553</v>
+        <v>8.030886095506279</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>28.94744001652488</v>
+        <v>23.42787472303157</v>
       </c>
       <c r="G14">
-        <v>34.46801714578421</v>
+        <v>26.45877984548403</v>
       </c>
       <c r="H14">
-        <v>11.02314409878495</v>
+        <v>6.681337994546441</v>
       </c>
       <c r="I14">
-        <v>16.37838020645879</v>
+        <v>3.584540731739207</v>
       </c>
       <c r="J14">
-        <v>7.207920116103801</v>
+        <v>8.981634132274573</v>
       </c>
       <c r="K14">
-        <v>14.56671586963103</v>
+        <v>10.75356163482378</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.848601735033219</v>
       </c>
       <c r="M14">
-        <v>15.08316103963724</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>12.2706386436905</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.05721523630563</v>
+        <v>30.73809201490075</v>
       </c>
       <c r="C15">
-        <v>10.07665826277839</v>
+        <v>24.02638925781752</v>
       </c>
       <c r="D15">
-        <v>8.225733769863496</v>
+        <v>7.861847777024117</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>28.87207914364429</v>
+        <v>22.97141449522108</v>
       </c>
       <c r="G15">
-        <v>34.36679807472328</v>
+        <v>25.87022453773545</v>
       </c>
       <c r="H15">
-        <v>11.01710062106265</v>
+        <v>6.881639667354627</v>
       </c>
       <c r="I15">
-        <v>16.37166596254577</v>
+        <v>3.555597769965389</v>
       </c>
       <c r="J15">
-        <v>7.197916693282052</v>
+        <v>8.887579596238037</v>
       </c>
       <c r="K15">
-        <v>14.4881247783187</v>
+        <v>10.67745892490488</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.712636765225959</v>
       </c>
       <c r="M15">
-        <v>15.01861080016061</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>12.29733443855669</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.53491829766362</v>
+        <v>29.76206383022405</v>
       </c>
       <c r="C16">
-        <v>9.740426766263379</v>
+        <v>23.28738044082352</v>
       </c>
       <c r="D16">
-        <v>8.02422224567295</v>
+        <v>7.707004497259172</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>28.44530279368121</v>
+        <v>22.71324202533472</v>
       </c>
       <c r="G16">
-        <v>33.79398915184773</v>
+        <v>25.45072731740084</v>
       </c>
       <c r="H16">
-        <v>10.98521978207812</v>
+        <v>6.593097855067747</v>
       </c>
       <c r="I16">
-        <v>16.33810299559251</v>
+        <v>3.414446108573872</v>
       </c>
       <c r="J16">
-        <v>7.141708755344017</v>
+        <v>8.908304235850368</v>
       </c>
       <c r="K16">
-        <v>14.03055987387132</v>
+        <v>10.91862258041175</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.660236811362289</v>
       </c>
       <c r="M16">
-        <v>14.64575836399719</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>12.45093463594291</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.20686555311907</v>
+        <v>29.15352127433501</v>
       </c>
       <c r="C17">
-        <v>9.529513954541295</v>
+        <v>22.94877532427929</v>
       </c>
       <c r="D17">
-        <v>7.899108435928857</v>
+        <v>7.936369172838755</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>28.18805065029678</v>
+        <v>23.42045116338661</v>
       </c>
       <c r="G17">
-        <v>33.44907563506531</v>
+        <v>26.26558755979865</v>
       </c>
       <c r="H17">
-        <v>10.96806254370976</v>
+        <v>5.848814913914791</v>
       </c>
       <c r="I17">
-        <v>16.32178651335848</v>
+        <v>3.33961826274519</v>
       </c>
       <c r="J17">
-        <v>7.108216826354321</v>
+        <v>9.119335051544391</v>
       </c>
       <c r="K17">
-        <v>13.74340449851962</v>
+        <v>11.29920686029128</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.921733717359291</v>
       </c>
       <c r="M17">
-        <v>14.41446439254497</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>12.54573739007785</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.01535166252351</v>
+        <v>28.80722850727889</v>
       </c>
       <c r="C18">
-        <v>9.406479734437028</v>
+        <v>22.89959771372019</v>
       </c>
       <c r="D18">
-        <v>7.826613213804325</v>
+        <v>8.525407022285187</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>28.04177166204269</v>
+        <v>25.07953804643218</v>
       </c>
       <c r="G18">
-        <v>33.2530860864677</v>
+        <v>28.29709151277346</v>
       </c>
       <c r="H18">
-        <v>10.9590546901365</v>
+        <v>4.677244390734325</v>
       </c>
       <c r="I18">
-        <v>16.31392822898264</v>
+        <v>3.312961567752629</v>
       </c>
       <c r="J18">
-        <v>7.089313944639704</v>
+        <v>9.533474884414039</v>
       </c>
       <c r="K18">
-        <v>13.57585417987595</v>
+        <v>11.89815676835435</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.599682200856102</v>
       </c>
       <c r="M18">
-        <v>14.2805164315719</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>12.60048538365104</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.950021122297</v>
+        <v>28.70322609019489</v>
       </c>
       <c r="C19">
-        <v>9.36452513608741</v>
+        <v>23.14941441561623</v>
       </c>
       <c r="D19">
-        <v>7.801977617516069</v>
+        <v>9.384807388232101</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>27.99253453121657</v>
+        <v>27.29098201749662</v>
       </c>
       <c r="G19">
-        <v>33.18713999439203</v>
+        <v>30.97309159301954</v>
       </c>
       <c r="H19">
-        <v>10.95615053542786</v>
+        <v>3.437241988208421</v>
       </c>
       <c r="I19">
-        <v>16.31152558577234</v>
+        <v>3.337342464641049</v>
       </c>
       <c r="J19">
-        <v>7.082975436726105</v>
+        <v>10.05602662206595</v>
       </c>
       <c r="K19">
-        <v>13.51871339569394</v>
+        <v>12.62667720598505</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8.680127346387204</v>
       </c>
       <c r="M19">
-        <v>14.23500982804353</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>12.61906073246</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.24207945487991</v>
+        <v>29.28678508045795</v>
       </c>
       <c r="C20">
-        <v>9.552143937026953</v>
+        <v>24.10225420623086</v>
       </c>
       <c r="D20">
-        <v>7.912482556929752</v>
+        <v>10.8797100216801</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>28.21526133844221</v>
+        <v>31.04946408926318</v>
       </c>
       <c r="G20">
-        <v>33.4855446084072</v>
+        <v>35.54040434167411</v>
       </c>
       <c r="H20">
-        <v>10.96979941137921</v>
+        <v>2.768481540810103</v>
       </c>
       <c r="I20">
-        <v>16.323364454623</v>
+        <v>3.491313001123333</v>
       </c>
       <c r="J20">
-        <v>7.111744691862258</v>
+        <v>10.91307665541123</v>
       </c>
       <c r="K20">
-        <v>13.77421932197775</v>
+        <v>13.77289626585588</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.66525405644004</v>
       </c>
       <c r="M20">
-        <v>14.43918125994418</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>12.53562291116576</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.18971548075597</v>
+        <v>31.07197835310654</v>
       </c>
       <c r="C21">
-        <v>10.16204323417977</v>
+        <v>25.60396501466092</v>
       </c>
       <c r="D21">
-        <v>8.277286786858653</v>
+        <v>11.55152037945971</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>28.98366727318481</v>
+        <v>32.61533810283243</v>
       </c>
       <c r="G21">
-        <v>34.51668206869974</v>
+        <v>37.53572957021857</v>
       </c>
       <c r="H21">
-        <v>11.0260915653595</v>
+        <v>3.145423931495098</v>
       </c>
       <c r="I21">
-        <v>16.38168835830349</v>
+        <v>3.773574486114644</v>
       </c>
       <c r="J21">
-        <v>7.212736904495151</v>
+        <v>11.17786523096309</v>
       </c>
       <c r="K21">
-        <v>14.60427576951727</v>
+        <v>13.82424156319085</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.29832417177811</v>
       </c>
       <c r="M21">
-        <v>15.11406178543765</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>12.25784787629095</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.78428492856062</v>
+        <v>32.18782070978823</v>
       </c>
       <c r="C22">
-        <v>10.54564159345857</v>
+        <v>26.49021120320903</v>
       </c>
       <c r="D22">
-        <v>8.510652321097504</v>
+        <v>11.90213163463424</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>29.50068537803977</v>
+        <v>33.5209088509779</v>
       </c>
       <c r="G22">
-        <v>35.21168152222115</v>
+        <v>38.73332261527258</v>
       </c>
       <c r="H22">
-        <v>11.07100732603946</v>
+        <v>3.376779013112608</v>
       </c>
       <c r="I22">
-        <v>16.43433639663673</v>
+        <v>3.950163501910136</v>
       </c>
       <c r="J22">
-        <v>7.282016970257435</v>
+        <v>11.33805448732932</v>
       </c>
       <c r="K22">
-        <v>15.12583108385894</v>
+        <v>13.85538732437754</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.61070387478279</v>
       </c>
       <c r="M22">
-        <v>15.55803525889655</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>12.07807016221649</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.46919790016366</v>
+        <v>31.59734631781177</v>
       </c>
       <c r="C23">
-        <v>10.34226427301922</v>
+        <v>25.98560992039801</v>
       </c>
       <c r="D23">
-        <v>8.386576314834921</v>
+        <v>11.70337317029179</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>29.22339531257145</v>
+        <v>33.09172235717351</v>
       </c>
       <c r="G23">
-        <v>34.83882773980834</v>
+        <v>38.18982745023514</v>
       </c>
       <c r="H23">
-        <v>11.04626889096269</v>
+        <v>3.25439936599834</v>
       </c>
       <c r="I23">
-        <v>16.40486201586723</v>
+        <v>3.853529533074961</v>
       </c>
       <c r="J23">
-        <v>7.244738090452247</v>
+        <v>11.27252549245237</v>
       </c>
       <c r="K23">
-        <v>14.84936665535994</v>
+        <v>13.88028564894235</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.44532920622265</v>
       </c>
       <c r="M23">
-        <v>15.31649742624658</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>12.17386912710136</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.22616832454083</v>
+        <v>29.26042313842224</v>
       </c>
       <c r="C24">
-        <v>9.541918462528244</v>
+        <v>24.05717056664361</v>
       </c>
       <c r="D24">
-        <v>7.906437874948982</v>
+        <v>10.9462140677902</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>28.2029543422274</v>
+        <v>31.3612057095256</v>
       </c>
       <c r="G24">
-        <v>33.46904980058225</v>
+        <v>35.96387692774169</v>
       </c>
       <c r="H24">
-        <v>10.96901151214649</v>
+        <v>2.782007324710373</v>
       </c>
       <c r="I24">
-        <v>16.32264633617009</v>
+        <v>3.487691027762498</v>
       </c>
       <c r="J24">
-        <v>7.110148647930122</v>
+        <v>11.00201857869584</v>
       </c>
       <c r="K24">
-        <v>13.76029560871192</v>
+        <v>13.93097215459811</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.7992968307174</v>
       </c>
       <c r="M24">
-        <v>14.42800979145793</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>12.54019490299936</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.77707299314016</v>
+        <v>26.52332247880308</v>
       </c>
       <c r="C25">
-        <v>8.612573108106487</v>
+        <v>21.81847615986391</v>
       </c>
       <c r="D25">
-        <v>7.368431377263097</v>
+        <v>10.0767815781245</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>27.16681072384961</v>
+        <v>29.45716084570411</v>
       </c>
       <c r="G25">
-        <v>32.08326151355623</v>
+        <v>33.53479946165272</v>
       </c>
       <c r="H25">
-        <v>10.91830869104249</v>
+        <v>2.254401189848858</v>
       </c>
       <c r="I25">
-        <v>16.29178455549474</v>
+        <v>3.084950524584404</v>
       </c>
       <c r="J25">
-        <v>6.978725835276592</v>
+        <v>10.73246904921205</v>
       </c>
       <c r="K25">
-        <v>12.49418376685178</v>
+        <v>14.03569499787289</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.06238328661189</v>
       </c>
       <c r="M25">
-        <v>13.43520200240631</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>12.94385114873047</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_7/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,49 +421,55 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.3198244938717</v>
+        <v>24.33800947020109</v>
       </c>
       <c r="C2">
-        <v>19.92594805995155</v>
+        <v>20.57020109823831</v>
       </c>
       <c r="D2">
-        <v>9.354665912739412</v>
+        <v>9.619618610322716</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>28.17812535241687</v>
+        <v>27.15056686827139</v>
       </c>
       <c r="G2">
-        <v>32.00001100594942</v>
+        <v>29.61292445456981</v>
       </c>
       <c r="H2">
-        <v>1.850882370739265</v>
+        <v>1.850033544340919</v>
       </c>
       <c r="I2">
-        <v>2.77322340408848</v>
+        <v>2.814716736139335</v>
       </c>
       <c r="J2">
-        <v>10.60496633694934</v>
+        <v>10.69348823728041</v>
       </c>
       <c r="K2">
-        <v>14.25287775458085</v>
+        <v>13.45122590707329</v>
       </c>
       <c r="L2">
-        <v>9.487458098544385</v>
+        <v>11.86261168146084</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.083707814182763</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>9.486878654669304</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -474,49 +480,55 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.7055870629609</v>
+        <v>22.73609828206055</v>
       </c>
       <c r="C3">
-        <v>18.61090311934585</v>
+        <v>19.14789328460407</v>
       </c>
       <c r="D3">
-        <v>8.858034749070674</v>
+        <v>9.09818928703743</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.21656456936723</v>
+        <v>26.32726755550535</v>
       </c>
       <c r="G3">
-        <v>30.80598228312593</v>
+        <v>28.67359590458896</v>
       </c>
       <c r="H3">
-        <v>1.564788124491925</v>
+        <v>1.580342246338027</v>
       </c>
       <c r="I3">
-        <v>2.559047919363895</v>
+        <v>2.628569005561175</v>
       </c>
       <c r="J3">
-        <v>10.49893516042273</v>
+        <v>10.59377127574887</v>
       </c>
       <c r="K3">
-        <v>14.35941808367057</v>
+        <v>13.63547820717842</v>
       </c>
       <c r="L3">
-        <v>9.076612974205034</v>
+        <v>12.05826373138137</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.162838047068934</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>9.087446970183615</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -527,49 +539,55 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.65464224244831</v>
+        <v>21.69284389701911</v>
       </c>
       <c r="C4">
-        <v>17.76151699475226</v>
+        <v>18.22771137143998</v>
       </c>
       <c r="D4">
-        <v>8.540661385739256</v>
+        <v>8.76507062257031</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.61871277579857</v>
+        <v>25.81498093632099</v>
       </c>
       <c r="G4">
-        <v>30.06698031436053</v>
+        <v>28.09807458308748</v>
       </c>
       <c r="H4">
-        <v>1.742315374356472</v>
+        <v>1.715870232721001</v>
       </c>
       <c r="I4">
-        <v>2.521081782043886</v>
+        <v>2.511730158677238</v>
       </c>
       <c r="J4">
-        <v>10.43777263327796</v>
+        <v>10.53295380365649</v>
       </c>
       <c r="K4">
-        <v>14.43157967250953</v>
+        <v>13.75278022652612</v>
       </c>
       <c r="L4">
-        <v>8.814551371591129</v>
+        <v>12.17916933734932</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.236788006232606</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>8.832777307104191</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -580,49 +598,55 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.21108600060113</v>
+        <v>21.25247391923879</v>
       </c>
       <c r="C5">
-        <v>17.41736900793596</v>
+        <v>17.85255292060192</v>
       </c>
       <c r="D5">
-        <v>8.412605359327822</v>
+        <v>8.630122734547045</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.35673957890528</v>
+        <v>25.58950994958801</v>
       </c>
       <c r="G5">
-        <v>29.73418246562628</v>
+        <v>27.83605478233503</v>
       </c>
       <c r="H5">
-        <v>1.819955321109024</v>
+        <v>1.789153631203187</v>
       </c>
       <c r="I5">
-        <v>2.582870952699339</v>
+        <v>2.49050646364063</v>
       </c>
       <c r="J5">
-        <v>10.40812357358524</v>
+        <v>10.50321679864035</v>
       </c>
       <c r="K5">
-        <v>14.45176234622248</v>
+        <v>13.79233658749483</v>
       </c>
       <c r="L5">
-        <v>8.705179627096738</v>
+        <v>12.22055402247429</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.267302088348641</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>8.726535715565504</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -633,49 +657,55 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.13630413848963</v>
+        <v>21.17822913301857</v>
       </c>
       <c r="C6">
-        <v>17.37495485858654</v>
+        <v>17.80379533860397</v>
       </c>
       <c r="D6">
-        <v>8.396464407622107</v>
+        <v>8.612380220115368</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.29267145002883</v>
+        <v>25.53340769409294</v>
       </c>
       <c r="G6">
-        <v>29.64152707151721</v>
+        <v>27.75840127791648</v>
       </c>
       <c r="H6">
-        <v>1.833248102471329</v>
+        <v>1.801690562272689</v>
       </c>
       <c r="I6">
-        <v>2.597325563823794</v>
+        <v>2.504520610871641</v>
       </c>
       <c r="J6">
-        <v>10.39630383647976</v>
+        <v>10.49211196048678</v>
       </c>
       <c r="K6">
-        <v>14.44201453024768</v>
+        <v>13.78771382974568</v>
       </c>
       <c r="L6">
-        <v>8.686663066643394</v>
+        <v>12.21757217924381</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.265736070239511</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>8.708565151279309</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -686,49 +716,55 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.64814511361456</v>
+        <v>21.68609480575117</v>
       </c>
       <c r="C7">
-        <v>17.79787602100199</v>
+        <v>18.24940129952703</v>
       </c>
       <c r="D7">
-        <v>8.553153973804342</v>
+        <v>8.78401070864648</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.55991464686543</v>
+        <v>25.73162543224133</v>
       </c>
       <c r="G7">
-        <v>29.96179920459815</v>
+        <v>28.06989159223152</v>
       </c>
       <c r="H7">
-        <v>1.744177406717946</v>
+        <v>1.71828505100909</v>
       </c>
       <c r="I7">
-        <v>2.532896016015416</v>
+        <v>2.514053922124609</v>
       </c>
       <c r="J7">
-        <v>10.41845162602612</v>
+        <v>10.46232524212224</v>
       </c>
       <c r="K7">
-        <v>14.39576184470376</v>
+        <v>13.70964673129031</v>
       </c>
       <c r="L7">
-        <v>8.812520336286306</v>
+        <v>12.14214518942702</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.208934937324035</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>8.830365636403235</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -739,49 +775,55 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.77487995150522</v>
+        <v>23.79636850866118</v>
       </c>
       <c r="C8">
-        <v>19.53114352335395</v>
+        <v>20.10124954941413</v>
       </c>
       <c r="D8">
-        <v>9.203642350690776</v>
+        <v>9.48284934447169</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.77823764952491</v>
+        <v>26.70854885714057</v>
       </c>
       <c r="G8">
-        <v>31.4625393284321</v>
+        <v>29.38936571250176</v>
       </c>
       <c r="H8">
-        <v>1.752443536819445</v>
+        <v>1.755228175177098</v>
       </c>
       <c r="I8">
-        <v>2.702624256558651</v>
+        <v>2.75275860912398</v>
       </c>
       <c r="J8">
-        <v>10.54293249853239</v>
+        <v>10.46327345719797</v>
       </c>
       <c r="K8">
-        <v>14.24026402715146</v>
+        <v>13.43086921017411</v>
       </c>
       <c r="L8">
-        <v>9.347175047588935</v>
+        <v>11.8637091825235</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.044628498627384</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>9.349088405146764</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -792,49 +834,55 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.47545151973592</v>
+        <v>27.46596480275868</v>
       </c>
       <c r="C9">
-        <v>22.53444392050763</v>
+        <v>23.34418580080827</v>
       </c>
       <c r="D9">
-        <v>10.35522037445821</v>
+        <v>10.69755225806918</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.19089389271461</v>
+        <v>28.75952035688968</v>
       </c>
       <c r="G9">
-        <v>34.51445060182674</v>
+        <v>31.88378482304793</v>
       </c>
       <c r="H9">
-        <v>2.435935754680106</v>
+        <v>2.398149475696767</v>
       </c>
       <c r="I9">
-        <v>3.218293591118375</v>
+        <v>3.199674423979763</v>
       </c>
       <c r="J9">
-        <v>10.85273995624973</v>
+        <v>10.69135590742497</v>
       </c>
       <c r="K9">
-        <v>14.05935189760684</v>
+        <v>13.02214781687558</v>
       </c>
       <c r="L9">
-        <v>10.31674668831404</v>
+        <v>11.40613032807344</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.006736062596614</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>10.29185169196413</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -845,49 +893,55 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.90855429315614</v>
+        <v>29.87463384805067</v>
       </c>
       <c r="C10">
-        <v>24.51300744907662</v>
+        <v>25.4065787952373</v>
       </c>
       <c r="D10">
-        <v>11.0212972190077</v>
+        <v>11.43374671055631</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>31.57008232552718</v>
+        <v>29.76628007602065</v>
       </c>
       <c r="G10">
-        <v>36.28401882498481</v>
+        <v>33.68069380898622</v>
       </c>
       <c r="H10">
-        <v>2.890404732430924</v>
+        <v>2.821163372339922</v>
       </c>
       <c r="I10">
-        <v>3.578370695450363</v>
+        <v>3.509642642933989</v>
       </c>
       <c r="J10">
-        <v>11.01605813055369</v>
+        <v>10.50426215220998</v>
       </c>
       <c r="K10">
-        <v>13.83437061511037</v>
+        <v>12.57481308943123</v>
       </c>
       <c r="L10">
-        <v>10.79907788471704</v>
+        <v>10.95769753605102</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.963019094054255</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>10.75403118016686</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -898,49 +952,55 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.92551086947309</v>
+        <v>30.88246336459581</v>
       </c>
       <c r="C11">
-        <v>25.02694644909735</v>
+        <v>25.71505091113179</v>
       </c>
       <c r="D11">
-        <v>10.28731574717342</v>
+        <v>10.72230516544862</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>29.40151692660568</v>
+        <v>27.45076755023752</v>
       </c>
       <c r="G11">
-        <v>33.69725060512669</v>
+        <v>32.12173320549435</v>
       </c>
       <c r="H11">
-        <v>3.544080294368799</v>
+        <v>3.478440569885166</v>
       </c>
       <c r="I11">
-        <v>3.683274504794857</v>
+        <v>3.597419924713883</v>
       </c>
       <c r="J11">
-        <v>10.4037134908826</v>
+        <v>9.423320994901401</v>
       </c>
       <c r="K11">
-        <v>12.68206749900259</v>
+        <v>11.49846358011817</v>
       </c>
       <c r="L11">
-        <v>9.524342343108119</v>
+        <v>10.21376088845832</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.142611854393222</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>9.46731457346816</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -951,49 +1011,55 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.29140472465317</v>
+        <v>31.24641320235706</v>
       </c>
       <c r="C12">
-        <v>25.00790548950012</v>
+        <v>25.53781393475953</v>
       </c>
       <c r="D12">
-        <v>9.514510013934945</v>
+        <v>9.93021398076376</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>27.32915660722096</v>
+        <v>25.42244910247322</v>
       </c>
       <c r="G12">
-        <v>31.23457836320481</v>
+        <v>30.3033909268317</v>
       </c>
       <c r="H12">
-        <v>4.605719599680926</v>
+        <v>4.555162551666811</v>
       </c>
       <c r="I12">
-        <v>3.698331318132976</v>
+        <v>3.607959905713253</v>
       </c>
       <c r="J12">
-        <v>9.875591234137239</v>
+        <v>8.784705715914807</v>
       </c>
       <c r="K12">
-        <v>11.842797294319</v>
+        <v>10.82362221373692</v>
       </c>
       <c r="L12">
-        <v>8.437592608107662</v>
+        <v>9.794926516165079</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.544003227965553</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>8.37443919380893</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1004,49 +1070,55 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.19069171328421</v>
+        <v>31.14964963596881</v>
       </c>
       <c r="C13">
-        <v>24.62537609895638</v>
+        <v>25.03682338734414</v>
       </c>
       <c r="D13">
-        <v>8.663947664810594</v>
+        <v>9.011318878252574</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>25.09250054832687</v>
+        <v>23.45084785381553</v>
       </c>
       <c r="G13">
-        <v>28.52123394231891</v>
+        <v>27.84832354312503</v>
       </c>
       <c r="H13">
-        <v>5.79825338271008</v>
+        <v>5.762510559116218</v>
       </c>
       <c r="I13">
-        <v>3.64801557126056</v>
+        <v>3.56507801779681</v>
       </c>
       <c r="J13">
-        <v>9.350201832613827</v>
+        <v>8.485743569298256</v>
       </c>
       <c r="K13">
-        <v>11.15399585342806</v>
+        <v>10.39340095507021</v>
       </c>
       <c r="L13">
-        <v>7.449513635698857</v>
+        <v>9.553927273532405</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.079938699482572</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>7.386209229226794</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1057,49 +1129,55 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.90812216211334</v>
+        <v>30.8723543028696</v>
       </c>
       <c r="C14">
-        <v>24.19763903210919</v>
+        <v>24.54062373789068</v>
       </c>
       <c r="D14">
-        <v>8.030886095506279</v>
+        <v>8.309206065258268</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>23.42787472303157</v>
+        <v>22.07014545036311</v>
       </c>
       <c r="G14">
-        <v>26.45877984548403</v>
+        <v>25.80172485022097</v>
       </c>
       <c r="H14">
-        <v>6.681337994546441</v>
+        <v>6.654411928175186</v>
       </c>
       <c r="I14">
-        <v>3.584540731739207</v>
+        <v>3.512369288782721</v>
       </c>
       <c r="J14">
-        <v>8.981634132274573</v>
+        <v>8.402637973722248</v>
       </c>
       <c r="K14">
-        <v>10.75356163482378</v>
+        <v>10.19905460495812</v>
       </c>
       <c r="L14">
-        <v>6.848601735033219</v>
+        <v>9.45254278718601</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5.824432832841118</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.788667210014177</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1110,49 +1188,55 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.73809201490075</v>
+        <v>30.70485076712125</v>
       </c>
       <c r="C15">
-        <v>24.02638925781752</v>
+        <v>24.35836949396447</v>
       </c>
       <c r="D15">
-        <v>7.861847777024117</v>
+        <v>8.114761390700794</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>22.97141449522108</v>
+        <v>21.72515640610005</v>
       </c>
       <c r="G15">
-        <v>25.87022453773545</v>
+        <v>25.14897738239222</v>
       </c>
       <c r="H15">
-        <v>6.881639667354627</v>
+        <v>6.85723571469133</v>
       </c>
       <c r="I15">
-        <v>3.555597769965389</v>
+        <v>3.489100969096623</v>
       </c>
       <c r="J15">
-        <v>8.887579596238037</v>
+        <v>8.431213703327034</v>
       </c>
       <c r="K15">
-        <v>10.67745892490488</v>
+        <v>10.18515056635952</v>
       </c>
       <c r="L15">
-        <v>6.712636765225959</v>
+        <v>9.447548383472723</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.783160253806299</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.655184887265869</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1163,49 +1247,55 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.76206383022405</v>
+        <v>29.74047195750081</v>
       </c>
       <c r="C16">
-        <v>23.28738044082352</v>
+        <v>23.67376878534756</v>
       </c>
       <c r="D16">
-        <v>7.707004497259172</v>
+        <v>7.892449611089009</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>22.71324202533472</v>
+        <v>21.80284940757233</v>
       </c>
       <c r="G16">
-        <v>25.45072731740084</v>
+        <v>24.15613160842081</v>
       </c>
       <c r="H16">
-        <v>6.593097855067747</v>
+        <v>6.575235094009297</v>
       </c>
       <c r="I16">
-        <v>3.414446108573872</v>
+        <v>3.372873567584858</v>
       </c>
       <c r="J16">
-        <v>8.908304235850368</v>
+        <v>8.899514781371007</v>
       </c>
       <c r="K16">
-        <v>10.91862258041175</v>
+        <v>10.52259427411363</v>
       </c>
       <c r="L16">
-        <v>6.660236811362289</v>
+        <v>9.653971917375321</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.006778344492089</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.616877757750219</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1216,49 +1306,55 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.15352127433501</v>
+        <v>29.1377706209714</v>
       </c>
       <c r="C17">
-        <v>22.94877532427929</v>
+        <v>23.40258574128224</v>
       </c>
       <c r="D17">
-        <v>7.936369172838755</v>
+        <v>8.113885377375595</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>23.42045116338661</v>
+        <v>22.57986608473924</v>
       </c>
       <c r="G17">
-        <v>26.26558755979865</v>
+        <v>24.61294990694475</v>
       </c>
       <c r="H17">
-        <v>5.848814913914791</v>
+        <v>5.832460457684323</v>
       </c>
       <c r="I17">
-        <v>3.33961826274519</v>
+        <v>3.310897571437473</v>
       </c>
       <c r="J17">
-        <v>9.119335051544391</v>
+        <v>9.267925664592273</v>
       </c>
       <c r="K17">
-        <v>11.29920686029128</v>
+        <v>10.87606873175028</v>
       </c>
       <c r="L17">
-        <v>6.921733717359291</v>
+        <v>9.880038128691151</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.287263964120027</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.886098618744491</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1269,49 +1365,55 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.80722850727889</v>
+        <v>28.79336442664761</v>
       </c>
       <c r="C18">
-        <v>22.89959771372019</v>
+        <v>23.46042672574834</v>
       </c>
       <c r="D18">
-        <v>8.525407022285187</v>
+        <v>8.732981878971557</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>25.07953804643218</v>
+        <v>24.13964854792589</v>
       </c>
       <c r="G18">
-        <v>28.29709151277346</v>
+        <v>26.29027921520609</v>
       </c>
       <c r="H18">
-        <v>4.677244390734325</v>
+        <v>4.657745066205888</v>
       </c>
       <c r="I18">
-        <v>3.312961567752629</v>
+        <v>3.28752447834665</v>
       </c>
       <c r="J18">
-        <v>9.533474884414039</v>
+        <v>9.690445134440068</v>
       </c>
       <c r="K18">
-        <v>11.89815676835435</v>
+        <v>11.34960642135562</v>
       </c>
       <c r="L18">
-        <v>7.599682200856102</v>
+        <v>10.19507996257324</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.69448046395823</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>7.567746623155015</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1322,49 +1424,55 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.70322609019489</v>
+        <v>28.68790955417711</v>
       </c>
       <c r="C19">
-        <v>23.14941441561623</v>
+        <v>23.84234929438442</v>
       </c>
       <c r="D19">
-        <v>9.384807388232101</v>
+        <v>9.643715933539763</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>27.29098201749662</v>
+        <v>26.15468999616916</v>
       </c>
       <c r="G19">
-        <v>30.97309159301954</v>
+        <v>28.59908025005402</v>
       </c>
       <c r="H19">
-        <v>3.437241988208421</v>
+        <v>3.407578748481336</v>
       </c>
       <c r="I19">
-        <v>3.337342464641049</v>
+        <v>3.309484589134054</v>
       </c>
       <c r="J19">
-        <v>10.05602662206595</v>
+        <v>10.14051965495939</v>
       </c>
       <c r="K19">
-        <v>12.62667720598505</v>
+        <v>11.88886121465264</v>
       </c>
       <c r="L19">
-        <v>8.680127346387204</v>
+        <v>10.56050378041998</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.171899752851196</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>8.648770524284339</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1375,49 +1483,55 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.28678508045795</v>
+        <v>29.26043160540883</v>
       </c>
       <c r="C20">
-        <v>24.10225420623086</v>
+        <v>24.9974823513944</v>
       </c>
       <c r="D20">
-        <v>10.8797100216801</v>
+        <v>11.24862809712985</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>31.04946408926318</v>
+        <v>29.45031992213966</v>
       </c>
       <c r="G20">
-        <v>35.54040434167411</v>
+        <v>32.74250753814169</v>
       </c>
       <c r="H20">
-        <v>2.768481540810103</v>
+        <v>2.709674496968814</v>
       </c>
       <c r="I20">
-        <v>3.491313001123333</v>
+        <v>3.441024054635903</v>
       </c>
       <c r="J20">
-        <v>10.91307665541123</v>
+        <v>10.6809830902046</v>
       </c>
       <c r="K20">
-        <v>13.77289626585588</v>
+        <v>12.63992623209511</v>
       </c>
       <c r="L20">
-        <v>10.66525405644004</v>
+        <v>11.04067235955787</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.921582785184873</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>10.62687045658382</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1428,49 +1542,55 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.07197835310654</v>
+        <v>31.02096103028387</v>
       </c>
       <c r="C21">
-        <v>25.60396501466092</v>
+        <v>26.42986168194055</v>
       </c>
       <c r="D21">
-        <v>11.55152037945971</v>
+        <v>12.09949537047035</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>32.61533810283243</v>
+        <v>30.20734376366973</v>
       </c>
       <c r="G21">
-        <v>37.53572957021857</v>
+        <v>35.77768989056923</v>
       </c>
       <c r="H21">
-        <v>3.145423931495098</v>
+        <v>3.051484580226948</v>
       </c>
       <c r="I21">
-        <v>3.773574486114644</v>
+        <v>3.673535799081501</v>
       </c>
       <c r="J21">
-        <v>11.17786523096309</v>
+        <v>9.74364385604945</v>
       </c>
       <c r="K21">
-        <v>13.82424156319085</v>
+        <v>12.22184166055324</v>
       </c>
       <c r="L21">
-        <v>11.29832417177811</v>
+        <v>10.6561092539509</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.848450221690431</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>11.23853023570073</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1481,49 +1601,55 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.18782070978823</v>
+        <v>32.12049449247424</v>
       </c>
       <c r="C22">
-        <v>26.49021120320903</v>
+        <v>27.25553930427094</v>
       </c>
       <c r="D22">
-        <v>11.90213163463424</v>
+        <v>12.56864131408388</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>33.5209088509779</v>
+        <v>30.57266616373054</v>
       </c>
       <c r="G22">
-        <v>38.73332261527258</v>
+        <v>37.73659914404934</v>
       </c>
       <c r="H22">
-        <v>3.376779013112608</v>
+        <v>3.260381127508818</v>
       </c>
       <c r="I22">
-        <v>3.950163501910136</v>
+        <v>3.817148156097317</v>
       </c>
       <c r="J22">
-        <v>11.33805448732932</v>
+        <v>9.090425880039868</v>
       </c>
       <c r="K22">
-        <v>13.85538732437754</v>
+        <v>11.92756443440944</v>
       </c>
       <c r="L22">
-        <v>11.61070387478279</v>
+        <v>10.39630152069784</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.797704035649759</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>11.5373065041694</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1534,49 +1660,55 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.59734631781177</v>
+        <v>31.53926748503573</v>
       </c>
       <c r="C23">
-        <v>25.98560992039801</v>
+        <v>26.80736376655768</v>
       </c>
       <c r="D23">
-        <v>11.70337317029179</v>
+        <v>12.29202747723817</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>33.09172235717351</v>
+        <v>30.49183689055294</v>
       </c>
       <c r="G23">
-        <v>38.18982745023514</v>
+        <v>36.6283087732378</v>
       </c>
       <c r="H23">
-        <v>3.25439936599834</v>
+        <v>3.151023967078284</v>
       </c>
       <c r="I23">
-        <v>3.853529533074961</v>
+        <v>3.737900233011219</v>
       </c>
       <c r="J23">
-        <v>11.27252549245237</v>
+        <v>9.569646845799864</v>
       </c>
       <c r="K23">
-        <v>13.88028564894235</v>
+        <v>12.15140447346402</v>
       </c>
       <c r="L23">
-        <v>11.44532920622265</v>
+        <v>10.57475987819879</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.885276921359023</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>11.37981882084558</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1587,49 +1719,55 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.26042313842224</v>
+        <v>29.23392509887082</v>
       </c>
       <c r="C24">
-        <v>24.05717056664361</v>
+        <v>24.97066088813435</v>
       </c>
       <c r="D24">
-        <v>10.9462140677902</v>
+        <v>11.32101473168634</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>31.3612057095256</v>
+        <v>29.7382452986646</v>
       </c>
       <c r="G24">
-        <v>35.96387692774169</v>
+        <v>33.10721824578653</v>
       </c>
       <c r="H24">
-        <v>2.782007324710373</v>
+        <v>2.722774206123528</v>
       </c>
       <c r="I24">
-        <v>3.487691027762498</v>
+        <v>3.435152813336376</v>
       </c>
       <c r="J24">
-        <v>11.00201857869584</v>
+        <v>10.76454415682359</v>
       </c>
       <c r="K24">
-        <v>13.93097215459811</v>
+        <v>12.76650526226641</v>
       </c>
       <c r="L24">
-        <v>10.7992968307174</v>
+        <v>11.12690840141732</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.029392221533531</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>10.76095924550674</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1640,49 +1778,55 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.52332247880308</v>
+        <v>26.52273670663161</v>
       </c>
       <c r="C25">
-        <v>21.81847615986391</v>
+        <v>22.57633006082122</v>
       </c>
       <c r="D25">
-        <v>10.0767815781245</v>
+        <v>10.39130754934081</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.45716084570411</v>
+        <v>28.16972469052155</v>
       </c>
       <c r="G25">
-        <v>33.53479946165272</v>
+        <v>30.97307119637017</v>
       </c>
       <c r="H25">
-        <v>2.254401189848858</v>
+        <v>2.228476367130523</v>
       </c>
       <c r="I25">
-        <v>3.084950524584404</v>
+        <v>3.087235826739</v>
       </c>
       <c r="J25">
-        <v>10.73246904921205</v>
+        <v>10.67394039948059</v>
       </c>
       <c r="K25">
-        <v>14.03569499787289</v>
+        <v>13.09238718315321</v>
       </c>
       <c r="L25">
-        <v>10.06238328661189</v>
+        <v>11.50389231422801</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.962857247908417</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>10.04513030128894</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1691,6 +1835,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
